--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1371426.89136016</v>
+        <v>1369896.367537654</v>
       </c>
     </row>
     <row r="7">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,61 +752,61 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>36.39025468426208</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="H3" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>36.39025468426208</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -825,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15.18661160258025</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="T4" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -977,55 +977,55 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
         <v>36.39025468426208</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1071,55 +1071,55 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>21.20364308168184</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>15.18661160258025</v>
+      </c>
+      <c r="V7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
+      <c r="W7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="T7" t="n">
+      <c r="X7" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1220,61 +1220,61 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="G9" t="n">
+      <c r="U9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="H9" t="n">
+      <c r="V9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>15.18661160258025</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>393.2157162120739</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>205.2282753822211</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>275.8785654204481</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>59.76298808426328</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5491497884846</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.8000708551639697</v>
+        <v>0.8000708551639661</v>
       </c>
       <c r="S13" t="n">
         <v>149.7408175385913</v>
       </c>
       <c r="T13" t="n">
-        <v>241.4817763110569</v>
+        <v>241.4817763110568</v>
       </c>
       <c r="U13" t="n">
         <v>275.6239191354308</v>
@@ -1612,19 +1612,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>261.5820534833331</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>396.3722297171108</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>275.8785654204481</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>59.76298808426328</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>213.4381736591986</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.25343755199806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.8000708551639697</v>
+        <v>0.8000708551639661</v>
       </c>
       <c r="S16" t="n">
         <v>149.7408175385913</v>
       </c>
       <c r="T16" t="n">
-        <v>241.4817763110569</v>
+        <v>241.4817763110568</v>
       </c>
       <c r="U16" t="n">
         <v>275.6239191354308</v>
@@ -1855,7 +1855,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948852</v>
       </c>
       <c r="G17" t="n">
         <v>396.3722297171108</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.8000708551639697</v>
+        <v>0.8000708551639661</v>
       </c>
       <c r="S19" t="n">
         <v>149.7408175385913</v>
       </c>
       <c r="T19" t="n">
-        <v>241.4817763110569</v>
+        <v>241.4817763110568</v>
       </c>
       <c r="U19" t="n">
         <v>275.6239191354308</v>
@@ -2086,7 +2086,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869773009</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2134,10 +2134,10 @@
         <v>59.76298808426328</v>
       </c>
       <c r="T20" t="n">
-        <v>213.4381736591986</v>
+        <v>213.438173659198</v>
       </c>
       <c r="U20" t="n">
-        <v>256.5491497884846</v>
+        <v>256.5491497884845</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.8000708551639697</v>
+        <v>0.8000708551639661</v>
       </c>
       <c r="S22" t="n">
         <v>149.7408175385913</v>
       </c>
       <c r="T22" t="n">
-        <v>241.4817763110569</v>
+        <v>241.4817763110568</v>
       </c>
       <c r="U22" t="n">
         <v>275.6239191354308</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>59.76298808426328</v>
+        <v>59.76298808426283</v>
       </c>
       <c r="T23" t="n">
         <v>213.4381736591986</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5491497884846</v>
+        <v>256.5491497884854</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8000708551639697</v>
+        <v>0.8000708551639661</v>
       </c>
       <c r="S25" t="n">
         <v>149.7408175385913</v>
       </c>
       <c r="T25" t="n">
-        <v>241.4817763110569</v>
+        <v>241.4817763110568</v>
       </c>
       <c r="U25" t="n">
         <v>275.6239191354308</v>
@@ -2611,7 +2611,7 @@
         <v>213.4381736591986</v>
       </c>
       <c r="U26" t="n">
-        <v>256.5491497884846</v>
+        <v>256.5491497884836</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.8000708551639697</v>
+        <v>0.8000708551639661</v>
       </c>
       <c r="S28" t="n">
         <v>149.7408175385913</v>
       </c>
       <c r="T28" t="n">
-        <v>241.4817763110569</v>
+        <v>241.4817763110568</v>
       </c>
       <c r="U28" t="n">
         <v>275.6239191354308</v>
@@ -2806,7 +2806,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>396.3722297171116</v>
+        <v>396.3722297171108</v>
       </c>
       <c r="H29" t="n">
         <v>275.8785654204481</v>
@@ -2848,7 +2848,7 @@
         <v>213.4381736591986</v>
       </c>
       <c r="U29" t="n">
-        <v>256.5491497884846</v>
+        <v>256.5491497884845</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.8000708551639697</v>
+        <v>0.8000708551639661</v>
       </c>
       <c r="S31" t="n">
         <v>149.7408175385913</v>
       </c>
       <c r="T31" t="n">
-        <v>241.4817763110569</v>
+        <v>241.4817763110568</v>
       </c>
       <c r="U31" t="n">
         <v>275.6239191354308</v>
@@ -3097,7 +3097,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633441</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.8000708551639697</v>
+        <v>0.8000708551639661</v>
       </c>
       <c r="S34" t="n">
         <v>149.7408175385913</v>
       </c>
       <c r="T34" t="n">
-        <v>241.4817763110569</v>
+        <v>241.4817763110568</v>
       </c>
       <c r="U34" t="n">
         <v>275.6239191354308</v>
@@ -3322,7 +3322,7 @@
         <v>213.4381736591986</v>
       </c>
       <c r="U35" t="n">
-        <v>256.5491497884846</v>
+        <v>256.5491497884845</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.8000708551639697</v>
+        <v>0.8000708551639661</v>
       </c>
       <c r="S37" t="n">
         <v>149.7408175385913</v>
       </c>
       <c r="T37" t="n">
-        <v>241.4817763110569</v>
+        <v>241.4817763110568</v>
       </c>
       <c r="U37" t="n">
         <v>275.6239191354308</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>59.76298808426463</v>
+        <v>59.76298808426328</v>
       </c>
       <c r="T38" t="n">
-        <v>213.4381736591986</v>
+        <v>213.438173659198</v>
       </c>
       <c r="U38" t="n">
-        <v>256.5491497884846</v>
+        <v>256.5491497884845</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.8000708551639697</v>
+        <v>0.8000708551639661</v>
       </c>
       <c r="S40" t="n">
         <v>149.7408175385913</v>
       </c>
       <c r="T40" t="n">
-        <v>241.4817763110569</v>
+        <v>241.4817763110568</v>
       </c>
       <c r="U40" t="n">
         <v>275.6239191354308</v>
@@ -3748,16 +3748,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>421.8458135622849</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>396.3722297171108</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>275.8785654204481</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>59.76298808426328</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>56.76747894519161</v>
       </c>
     </row>
     <row r="42">
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.8000708551639697</v>
+        <v>0.8000708551639661</v>
       </c>
       <c r="S43" t="n">
         <v>149.7408175385913</v>
       </c>
       <c r="T43" t="n">
-        <v>241.4817763110569</v>
+        <v>241.4817763110568</v>
       </c>
       <c r="U43" t="n">
         <v>275.6239191354308</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>391.6635356972472</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3985,16 +3985,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>164.5460572112082</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.3722297171108</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>275.8785654204481</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.8000708551639697</v>
+        <v>0.8000708551639661</v>
       </c>
       <c r="S46" t="n">
         <v>149.7408175385913</v>
       </c>
       <c r="T46" t="n">
-        <v>241.4817763110569</v>
+        <v>241.4817763110568</v>
       </c>
       <c r="U46" t="n">
         <v>275.6239191354308</v>
@@ -4330,25 +4330,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J2" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K2" t="n">
-        <v>3.305200243802188</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L2" t="n">
-        <v>3.305200243802188</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M2" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N2" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O2" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P2" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q2" t="n">
         <v>124.3581591730573</v>
@@ -4388,49 +4388,49 @@
         <v>86.76985286506957</v>
       </c>
       <c r="C3" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D3" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E3" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F3" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G3" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H3" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I3" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J3" t="n">
-        <v>3.305200243802188</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K3" t="n">
-        <v>3.305200243802188</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="L3" t="n">
-        <v>44.20705326085427</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="M3" t="n">
-        <v>85.10890627790634</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="N3" t="n">
+        <v>70.27072642131186</v>
+      </c>
+      <c r="O3" t="n">
+        <v>70.27072642131186</v>
+      </c>
+      <c r="P3" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="Q3" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="O3" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="P3" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="R3" t="n">
         <v>165.2600121901094</v>
@@ -4442,7 +4442,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="U3" t="n">
-        <v>128.5021791757032</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V3" t="n">
         <v>128.5021791757032</v>
@@ -4454,7 +4454,7 @@
         <v>128.5021791757032</v>
       </c>
       <c r="Y3" t="n">
-        <v>128.5021791757032</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.37753827421391</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C4" t="n">
-        <v>60.37753827421391</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D4" t="n">
-        <v>60.37753827421391</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E4" t="n">
-        <v>60.37753827421391</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F4" t="n">
-        <v>60.37753827421391</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G4" t="n">
-        <v>18.64521196358022</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H4" t="n">
         <v>3.305200243802188</v>
@@ -4497,10 +4497,10 @@
         <v>3.305200243802188</v>
       </c>
       <c r="M4" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="N4" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O4" t="n">
         <v>83.45630615600527</v>
@@ -4515,25 +4515,25 @@
         <v>143.8421908954813</v>
       </c>
       <c r="S4" t="n">
+        <v>143.8421908954813</v>
+      </c>
+      <c r="T4" t="n">
+        <v>143.8421908954813</v>
+      </c>
+      <c r="U4" t="n">
+        <v>143.8421908954813</v>
+      </c>
+      <c r="V4" t="n">
         <v>102.1098645848476</v>
       </c>
-      <c r="T4" t="n">
-        <v>60.37753827421391</v>
-      </c>
-      <c r="U4" t="n">
-        <v>60.37753827421391</v>
-      </c>
-      <c r="V4" t="n">
-        <v>60.37753827421391</v>
-      </c>
       <c r="W4" t="n">
-        <v>60.37753827421391</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="X4" t="n">
-        <v>60.37753827421391</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="Y4" t="n">
-        <v>60.37753827421391</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.8380161568152</v>
+        <v>122.8380161568153</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064259</v>
+        <v>88.73594738064263</v>
       </c>
       <c r="D5" t="n">
-        <v>56.86656659549116</v>
+        <v>56.86656659549121</v>
       </c>
       <c r="E5" t="n">
-        <v>27.13222579419039</v>
+        <v>27.13222579419044</v>
       </c>
       <c r="F5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="G5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="H5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="I5" t="n">
         <v>3.305200243802188</v>
@@ -4570,22 +4570,22 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K5" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L5" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M5" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N5" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O5" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P5" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q5" t="n">
         <v>124.3581591730573</v>
@@ -4606,7 +4606,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W5" t="n">
-        <v>164.4449616415467</v>
+        <v>164.4449616415468</v>
       </c>
       <c r="X5" t="n">
         <v>149.3429022612615</v>
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="C6" t="n">
-        <v>128.5021791757032</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="D6" t="n">
-        <v>86.76985286506957</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="E6" t="n">
         <v>86.76985286506957</v>
       </c>
       <c r="F6" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G6" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H6" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I6" t="n">
-        <v>29.36887340425979</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J6" t="n">
-        <v>70.27072642131186</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K6" t="n">
-        <v>111.1725794383639</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L6" t="n">
-        <v>124.3581591730573</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="M6" t="n">
-        <v>124.3581591730573</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="N6" t="n">
-        <v>124.3581591730573</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O6" t="n">
-        <v>124.3581591730573</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P6" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q6" t="n">
         <v>124.3581591730573</v>
@@ -4673,25 +4673,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="W6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="X6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="Y6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C7" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D7" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E7" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F7" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G7" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H7" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I7" t="n">
         <v>3.305200243802188</v>
@@ -4734,43 +4734,43 @@
         <v>85.10890627790634</v>
       </c>
       <c r="M7" t="n">
-        <v>126.0107592949584</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="N7" t="n">
-        <v>126.0107592949584</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="O7" t="n">
-        <v>126.0107592949584</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0107592949584</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q7" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R7" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S7" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T7" t="n">
-        <v>81.79535956884203</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U7" t="n">
-        <v>81.79535956884203</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V7" t="n">
-        <v>81.79535956884203</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="W7" t="n">
-        <v>81.79535956884203</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="X7" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y7" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.8380161568153</v>
+        <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064263</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D8" t="n">
-        <v>56.86656659549121</v>
+        <v>56.86656659549116</v>
       </c>
       <c r="E8" t="n">
-        <v>27.13222579419044</v>
+        <v>27.13222579419039</v>
       </c>
       <c r="F8" t="n">
-        <v>3.305200243802236</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G8" t="n">
         <v>3.305200243802188</v>
@@ -4804,19 +4804,19 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J8" t="n">
-        <v>42.55445313895319</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K8" t="n">
-        <v>42.55445313895319</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L8" t="n">
-        <v>42.55445313895319</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="M8" t="n">
-        <v>42.55445313895319</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="N8" t="n">
-        <v>42.55445313895319</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="O8" t="n">
         <v>42.55445313895319</v>
@@ -4843,7 +4843,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W8" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X8" t="n">
         <v>149.3429022612615</v>
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E9" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>29.36887340425979</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J9" t="n">
-        <v>70.27072642131186</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K9" t="n">
-        <v>83.45630615600527</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L9" t="n">
-        <v>83.45630615600527</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="M9" t="n">
-        <v>83.45630615600527</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="N9" t="n">
-        <v>83.45630615600527</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O9" t="n">
-        <v>83.45630615600527</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P9" t="n">
         <v>83.45630615600527</v>
@@ -4913,22 +4913,22 @@
         <v>165.2600121901094</v>
       </c>
       <c r="T9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U9" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="V9" t="n">
-        <v>165.2600121901094</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="W9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="X9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="10">
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>143.8421908954813</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C10" t="n">
-        <v>143.8421908954813</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D10" t="n">
-        <v>143.8421908954813</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E10" t="n">
-        <v>143.8421908954813</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F10" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G10" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I10" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="N10" t="n">
         <v>44.20705326085427</v>
       </c>
-      <c r="K10" t="n">
+      <c r="O10" t="n">
         <v>85.10890627790634</v>
       </c>
-      <c r="L10" t="n">
-        <v>124.3581591730573</v>
-      </c>
-      <c r="M10" t="n">
-        <v>124.3581591730573</v>
-      </c>
-      <c r="N10" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="O10" t="n">
-        <v>165.2600121901094</v>
-      </c>
       <c r="P10" t="n">
-        <v>165.2600121901094</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
@@ -4989,25 +4989,25 @@
         <v>143.8421908954813</v>
       </c>
       <c r="S10" t="n">
-        <v>143.8421908954813</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="T10" t="n">
-        <v>143.8421908954813</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="U10" t="n">
-        <v>143.8421908954813</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V10" t="n">
-        <v>143.8421908954813</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="W10" t="n">
-        <v>143.8421908954813</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="X10" t="n">
-        <v>143.8421908954813</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="Y10" t="n">
-        <v>143.8421908954813</v>
+        <v>128.5021791757032</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1765.397099764657</v>
+        <v>1854.176013492531</v>
       </c>
       <c r="C11" t="n">
-        <v>1327.25462694808</v>
+        <v>1416.033540675955</v>
       </c>
       <c r="D11" t="n">
-        <v>891.3448421225248</v>
+        <v>980.123755850399</v>
       </c>
       <c r="E11" t="n">
-        <v>457.57009728082</v>
+        <v>546.3490110086941</v>
       </c>
       <c r="F11" t="n">
-        <v>60.38250514741201</v>
+        <v>546.3490110086941</v>
       </c>
       <c r="G11" t="n">
-        <v>60.38250514741201</v>
+        <v>339.0477227438243</v>
       </c>
       <c r="H11" t="n">
         <v>60.38250514741201</v>
@@ -5047,16 +5047,16 @@
         <v>746.2364249166444</v>
       </c>
       <c r="L11" t="n">
-        <v>1465.092024611077</v>
+        <v>904.2817585566083</v>
       </c>
       <c r="M11" t="n">
-        <v>1640.947910361173</v>
+        <v>1080.137644306704</v>
       </c>
       <c r="N11" t="n">
-        <v>1819.649328194374</v>
+        <v>1258.839062139905</v>
       </c>
       <c r="O11" t="n">
-        <v>1988.392009678654</v>
+        <v>1427.581743624185</v>
       </c>
       <c r="P11" t="n">
         <v>2132.409984325574</v>
@@ -5068,25 +5068,25 @@
         <v>3019.125257370601</v>
       </c>
       <c r="S11" t="n">
-        <v>3019.125257370601</v>
+        <v>2958.758602740032</v>
       </c>
       <c r="T11" t="n">
-        <v>3019.125257370601</v>
+        <v>2958.758602740032</v>
       </c>
       <c r="U11" t="n">
-        <v>3019.125257370601</v>
+        <v>2699.618047398128</v>
       </c>
       <c r="V11" t="n">
-        <v>3019.125257370601</v>
+        <v>2699.618047398128</v>
       </c>
       <c r="W11" t="n">
-        <v>3019.125257370601</v>
+        <v>2699.618047398128</v>
       </c>
       <c r="X11" t="n">
-        <v>2599.982793949911</v>
+        <v>2280.475583977439</v>
       </c>
       <c r="Y11" t="n">
-        <v>2191.696670249565</v>
+        <v>2280.475583977439</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>181.6762185087391</v>
       </c>
       <c r="G12" t="n">
-        <v>96.83786231847486</v>
+        <v>96.83786231847485</v>
       </c>
       <c r="H12" t="n">
         <v>60.38250514741201</v>
       </c>
       <c r="I12" t="n">
-        <v>78.83184872800965</v>
+        <v>104.8955218884672</v>
       </c>
       <c r="J12" t="n">
-        <v>355.1557833466527</v>
+        <v>480.0802557807501</v>
       </c>
       <c r="K12" t="n">
-        <v>441.6843798570811</v>
+        <v>566.6088522911786</v>
       </c>
       <c r="L12" t="n">
-        <v>558.0327561573978</v>
+        <v>682.9572285914952</v>
       </c>
       <c r="M12" t="n">
-        <v>693.8058235014901</v>
+        <v>818.7302959355876</v>
       </c>
       <c r="N12" t="n">
-        <v>833.1723999328098</v>
+        <v>958.0968723669072</v>
       </c>
       <c r="O12" t="n">
-        <v>960.665589896718</v>
+        <v>1085.590062330815</v>
       </c>
       <c r="P12" t="n">
-        <v>1062.990114840929</v>
+        <v>1187.914587275027</v>
       </c>
       <c r="Q12" t="n">
-        <v>1672.130288577427</v>
+        <v>1554.957510483088</v>
       </c>
       <c r="R12" t="n">
         <v>1705.40021312863</v>
@@ -5190,34 +5190,34 @@
         <v>436.2180499255786</v>
       </c>
       <c r="G13" t="n">
-        <v>271.0851379883502</v>
+        <v>271.0851379883501</v>
       </c>
       <c r="H13" t="n">
-        <v>135.2582277708257</v>
+        <v>135.2582277708252</v>
       </c>
       <c r="I13" t="n">
         <v>60.38250514741201</v>
       </c>
       <c r="J13" t="n">
-        <v>92.14388715177374</v>
+        <v>92.14388715177375</v>
       </c>
       <c r="K13" t="n">
-        <v>419.0960490670964</v>
+        <v>402.3970779697336</v>
       </c>
       <c r="L13" t="n">
-        <v>904.0959065711166</v>
+        <v>887.3969354737538</v>
       </c>
       <c r="M13" t="n">
-        <v>1434.000438520091</v>
+        <v>1417.301467422728</v>
       </c>
       <c r="N13" t="n">
-        <v>1945.005460435537</v>
+        <v>1928.306489338174</v>
       </c>
       <c r="O13" t="n">
-        <v>2428.172969582086</v>
+        <v>2411.473998484724</v>
       </c>
       <c r="P13" t="n">
-        <v>2830.01359457802</v>
+        <v>2813.314623480657</v>
       </c>
       <c r="Q13" t="n">
         <v>3019.125257370601</v>
@@ -5226,7 +5226,7 @@
         <v>3018.317104991647</v>
       </c>
       <c r="S13" t="n">
-        <v>2867.063753942564</v>
+        <v>2867.063753942565</v>
       </c>
       <c r="T13" t="n">
         <v>2623.14276776978</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2041.343399589992</v>
+        <v>1190.616704002592</v>
       </c>
       <c r="C14" t="n">
-        <v>1603.200926773415</v>
+        <v>752.4742311860155</v>
       </c>
       <c r="D14" t="n">
-        <v>1167.29114194786</v>
+        <v>752.4742311860155</v>
       </c>
       <c r="E14" t="n">
-        <v>1167.29114194786</v>
+        <v>488.2499347382043</v>
       </c>
       <c r="F14" t="n">
-        <v>739.4237123570675</v>
+        <v>60.38250514741201</v>
       </c>
       <c r="G14" t="n">
-        <v>339.0477227438243</v>
+        <v>60.38250514741201</v>
       </c>
       <c r="H14" t="n">
         <v>60.38250514741201</v>
@@ -5278,10 +5278,10 @@
         <v>98.58461283384872</v>
       </c>
       <c r="J14" t="n">
-        <v>183.5862771148549</v>
+        <v>618.8409645677729</v>
       </c>
       <c r="K14" t="n">
-        <v>930.8197783140786</v>
+        <v>746.2364249166444</v>
       </c>
       <c r="L14" t="n">
         <v>1465.092024611077</v>
@@ -5305,25 +5305,25 @@
         <v>3019.125257370601</v>
       </c>
       <c r="S14" t="n">
-        <v>2958.758602740032</v>
+        <v>3019.125257370601</v>
       </c>
       <c r="T14" t="n">
-        <v>2958.758602740032</v>
+        <v>2803.531142563329</v>
       </c>
       <c r="U14" t="n">
-        <v>2958.758602740032</v>
+        <v>2803.531142563329</v>
       </c>
       <c r="V14" t="n">
-        <v>2958.758602740032</v>
+        <v>2440.914192497156</v>
       </c>
       <c r="W14" t="n">
-        <v>2958.758602740032</v>
+        <v>2036.058737908189</v>
       </c>
       <c r="X14" t="n">
-        <v>2539.616139319342</v>
+        <v>1616.9162744875</v>
       </c>
       <c r="Y14" t="n">
-        <v>2467.6429700749</v>
+        <v>1616.9162744875</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>181.6762185087391</v>
       </c>
       <c r="G15" t="n">
-        <v>96.83786231847486</v>
+        <v>96.83786231847485</v>
       </c>
       <c r="H15" t="n">
         <v>60.38250514741201</v>
       </c>
       <c r="I15" t="n">
-        <v>104.8955218884672</v>
+        <v>78.83184872800965</v>
       </c>
       <c r="J15" t="n">
-        <v>480.0802557807501</v>
+        <v>454.0165826202925</v>
       </c>
       <c r="K15" t="n">
-        <v>566.6088522911786</v>
+        <v>540.5451791307208</v>
       </c>
       <c r="L15" t="n">
-        <v>682.9572285914952</v>
+        <v>656.8935554310375</v>
       </c>
       <c r="M15" t="n">
-        <v>818.7302959355876</v>
+        <v>792.6666227751299</v>
       </c>
       <c r="N15" t="n">
-        <v>958.0968723669072</v>
+        <v>932.0331992064495</v>
       </c>
       <c r="O15" t="n">
-        <v>1085.590062330815</v>
+        <v>1059.526389170358</v>
       </c>
       <c r="P15" t="n">
-        <v>1486.556275378666</v>
+        <v>1161.850914114569</v>
       </c>
       <c r="Q15" t="n">
-        <v>1554.957510483088</v>
+        <v>1672.130288577427</v>
       </c>
       <c r="R15" t="n">
         <v>1705.40021312863</v>
@@ -5415,19 +5415,19 @@
         <v>1121.122812028338</v>
       </c>
       <c r="C16" t="n">
-        <v>948.5611005115629</v>
+        <v>948.5611005115628</v>
       </c>
       <c r="D16" t="n">
         <v>782.6831077130855</v>
       </c>
       <c r="E16" t="n">
-        <v>612.9251039638229</v>
+        <v>612.9251039638228</v>
       </c>
       <c r="F16" t="n">
         <v>436.2180499255791</v>
       </c>
       <c r="G16" t="n">
-        <v>271.0851379883502</v>
+        <v>271.0851379883505</v>
       </c>
       <c r="H16" t="n">
         <v>135.2582277708257</v>
@@ -5436,40 +5436,40 @@
         <v>60.38250514741201</v>
       </c>
       <c r="J16" t="n">
-        <v>92.14388715177374</v>
+        <v>92.14388715177375</v>
       </c>
       <c r="K16" t="n">
-        <v>419.0960490670964</v>
+        <v>402.3970779697327</v>
       </c>
       <c r="L16" t="n">
-        <v>904.0959065711166</v>
+        <v>887.3969354737529</v>
       </c>
       <c r="M16" t="n">
-        <v>1434.000438520091</v>
+        <v>1417.301467422727</v>
       </c>
       <c r="N16" t="n">
-        <v>1945.005460435537</v>
+        <v>1928.306489338173</v>
       </c>
       <c r="O16" t="n">
-        <v>2428.172969582086</v>
+        <v>2411.473998484723</v>
       </c>
       <c r="P16" t="n">
-        <v>2830.01359457802</v>
+        <v>2813.314623480656</v>
       </c>
       <c r="Q16" t="n">
-        <v>3019.125257370601</v>
+        <v>3019.1252573706</v>
       </c>
       <c r="R16" t="n">
-        <v>3018.317104991647</v>
+        <v>3018.317104991646</v>
       </c>
       <c r="S16" t="n">
-        <v>2867.063753942565</v>
+        <v>2867.063753942564</v>
       </c>
       <c r="T16" t="n">
         <v>2623.14276776978</v>
       </c>
       <c r="U16" t="n">
-        <v>2344.734768643083</v>
+        <v>2344.734768643082</v>
       </c>
       <c r="V16" t="n">
         <v>2057.779260513513</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2516.185384719493</v>
+        <v>2516.185384719492</v>
       </c>
       <c r="C17" t="n">
-        <v>2078.042911902916</v>
+        <v>2078.042911902915</v>
       </c>
       <c r="D17" t="n">
-        <v>1642.133127077361</v>
+        <v>1642.13312707736</v>
       </c>
       <c r="E17" t="n">
-        <v>1208.358382235656</v>
+        <v>1208.358382235655</v>
       </c>
       <c r="F17" t="n">
-        <v>780.4909526448637</v>
+        <v>780.4909526448619</v>
       </c>
       <c r="G17" t="n">
-        <v>380.1149630316195</v>
+        <v>380.1149630316187</v>
       </c>
       <c r="H17" t="n">
         <v>101.4497454352064</v>
@@ -5542,25 +5542,25 @@
         <v>5072.48727176032</v>
       </c>
       <c r="S17" t="n">
-        <v>5012.120617129752</v>
+        <v>5012.120617129751</v>
       </c>
       <c r="T17" t="n">
-        <v>4796.52650232248</v>
+        <v>4796.526502322479</v>
       </c>
       <c r="U17" t="n">
-        <v>4537.385946980577</v>
+        <v>4537.385946980576</v>
       </c>
       <c r="V17" t="n">
-        <v>4174.768996914403</v>
+        <v>4174.768996914402</v>
       </c>
       <c r="W17" t="n">
-        <v>3769.913542325437</v>
+        <v>3769.913542325436</v>
       </c>
       <c r="X17" t="n">
-        <v>3350.771078904747</v>
+        <v>3350.771078904746</v>
       </c>
       <c r="Y17" t="n">
-        <v>2942.484955204401</v>
+        <v>2942.4849552044</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>101.4497454352064</v>
       </c>
       <c r="I18" t="n">
-        <v>119.8990890158041</v>
+        <v>145.9627621762616</v>
       </c>
       <c r="J18" t="n">
-        <v>396.2230236344473</v>
+        <v>196.5891711023322</v>
       </c>
       <c r="K18" t="n">
-        <v>482.7516201448757</v>
+        <v>283.1177676127606</v>
       </c>
       <c r="L18" t="n">
-        <v>599.0999964451925</v>
+        <v>399.4661439130773</v>
       </c>
       <c r="M18" t="n">
-        <v>734.8730637892847</v>
+        <v>535.2392112571696</v>
       </c>
       <c r="N18" t="n">
-        <v>874.2396402206043</v>
+        <v>674.6057876884893</v>
       </c>
       <c r="O18" t="n">
-        <v>1001.732830184513</v>
+        <v>802.0989776523974</v>
       </c>
       <c r="P18" t="n">
-        <v>1104.057355128724</v>
+        <v>986.8845770343844</v>
       </c>
       <c r="Q18" t="n">
-        <v>1713.197528865222</v>
+        <v>1596.024750770882</v>
       </c>
       <c r="R18" t="n">
         <v>1746.467453416424</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2516.185384719492</v>
+        <v>2516.185384719491</v>
       </c>
       <c r="C20" t="n">
         <v>2078.042911902915</v>
@@ -5740,7 +5740,7 @@
         <v>1208.358382235654</v>
       </c>
       <c r="F20" t="n">
-        <v>780.4909526448619</v>
+        <v>780.490952644862</v>
       </c>
       <c r="G20" t="n">
         <v>380.1149630316187</v>
@@ -5752,25 +5752,25 @@
         <v>139.6518531216431</v>
       </c>
       <c r="J20" t="n">
-        <v>224.6535174026493</v>
+        <v>659.9082048555672</v>
       </c>
       <c r="K20" t="n">
-        <v>352.0489777515209</v>
+        <v>1621.653957162617</v>
       </c>
       <c r="L20" t="n">
-        <v>1585.154277644344</v>
+        <v>1779.699290802581</v>
       </c>
       <c r="M20" t="n">
-        <v>2840.594877405023</v>
+        <v>1955.555176552677</v>
       </c>
       <c r="N20" t="n">
-        <v>4096.035477165703</v>
+        <v>2134.256594385878</v>
       </c>
       <c r="O20" t="n">
-        <v>4588.252810026969</v>
+        <v>3213.444149234978</v>
       </c>
       <c r="P20" t="n">
-        <v>4732.270784673889</v>
+        <v>4185.771998715295</v>
       </c>
       <c r="Q20" t="n">
         <v>4840.422285858007</v>
@@ -5782,22 +5782,22 @@
         <v>5012.120617129751</v>
       </c>
       <c r="T20" t="n">
-        <v>4796.526502322479</v>
+        <v>4796.52650232248</v>
       </c>
       <c r="U20" t="n">
-        <v>4537.385946980576</v>
+        <v>4537.385946980577</v>
       </c>
       <c r="V20" t="n">
-        <v>4174.768996914402</v>
+        <v>4174.768996914403</v>
       </c>
       <c r="W20" t="n">
         <v>3769.913542325436</v>
       </c>
       <c r="X20" t="n">
-        <v>3350.771078904746</v>
+        <v>3350.771078904747</v>
       </c>
       <c r="Y20" t="n">
-        <v>2942.4849552044</v>
+        <v>2942.484955204399</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>101.4497454352064</v>
       </c>
       <c r="I21" t="n">
-        <v>119.8990890158041</v>
+        <v>145.9627621762616</v>
       </c>
       <c r="J21" t="n">
-        <v>495.0838229080869</v>
+        <v>521.1474960685445</v>
       </c>
       <c r="K21" t="n">
-        <v>906.3177806826116</v>
+        <v>607.6760925789729</v>
       </c>
       <c r="L21" t="n">
-        <v>1022.666156982928</v>
+        <v>724.0244688792895</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.439224327021</v>
+        <v>859.7975362233819</v>
       </c>
       <c r="N21" t="n">
-        <v>1297.80580075834</v>
+        <v>999.1641126547015</v>
       </c>
       <c r="O21" t="n">
-        <v>1425.298990722249</v>
+        <v>1126.65730261861</v>
       </c>
       <c r="P21" t="n">
-        <v>1527.62351566646</v>
+        <v>1228.981827562821</v>
       </c>
       <c r="Q21" t="n">
         <v>1596.024750770882</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2516.185384719492</v>
+        <v>2516.185384719491</v>
       </c>
       <c r="C23" t="n">
         <v>2078.042911902915</v>
       </c>
       <c r="D23" t="n">
-        <v>1642.13312707736</v>
+        <v>1642.133127077359</v>
       </c>
       <c r="E23" t="n">
-        <v>1208.358382235655</v>
+        <v>1208.358382235654</v>
       </c>
       <c r="F23" t="n">
-        <v>780.4909526448623</v>
+        <v>780.490952644862</v>
       </c>
       <c r="G23" t="n">
-        <v>380.1149630316186</v>
+        <v>380.1149630316187</v>
       </c>
       <c r="H23" t="n">
         <v>101.4497454352064</v>
@@ -5992,28 +5992,28 @@
         <v>659.9082048555672</v>
       </c>
       <c r="K23" t="n">
-        <v>1551.919163957131</v>
+        <v>1621.653957162617</v>
       </c>
       <c r="L23" t="n">
-        <v>1709.964497597095</v>
+        <v>1779.699290802581</v>
       </c>
       <c r="M23" t="n">
-        <v>1885.820383347191</v>
+        <v>1955.555176552677</v>
       </c>
       <c r="N23" t="n">
-        <v>2064.521801180392</v>
+        <v>2134.256594385878</v>
       </c>
       <c r="O23" t="n">
-        <v>3213.444149234978</v>
+        <v>3213.444149234977</v>
       </c>
       <c r="P23" t="n">
-        <v>4185.771998715295</v>
+        <v>4185.771998715294</v>
       </c>
       <c r="Q23" t="n">
-        <v>4840.422285858007</v>
+        <v>4840.422285858006</v>
       </c>
       <c r="R23" t="n">
-        <v>5072.48727176032</v>
+        <v>5072.487271760319</v>
       </c>
       <c r="S23" t="n">
         <v>5012.120617129751</v>
@@ -6022,19 +6022,19 @@
         <v>4796.526502322479</v>
       </c>
       <c r="U23" t="n">
-        <v>4537.385946980576</v>
+        <v>4537.385946980575</v>
       </c>
       <c r="V23" t="n">
-        <v>4174.768996914402</v>
+        <v>4174.768996914401</v>
       </c>
       <c r="W23" t="n">
-        <v>3769.913542325436</v>
+        <v>3769.913542325435</v>
       </c>
       <c r="X23" t="n">
         <v>3350.771078904746</v>
       </c>
       <c r="Y23" t="n">
-        <v>2942.4849552044</v>
+        <v>2942.484955204399</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3927.814280214117</v>
+        <v>601.7944618702226</v>
       </c>
       <c r="C24" t="n">
-        <v>3821.35781905076</v>
+        <v>495.3380007068649</v>
       </c>
       <c r="D24" t="n">
-        <v>3726.267530197313</v>
+        <v>400.2477118534181</v>
       </c>
       <c r="E24" t="n">
-        <v>3632.147115524267</v>
+        <v>306.1272971803718</v>
       </c>
       <c r="F24" t="n">
-        <v>3548.763277140428</v>
+        <v>222.7434587965335</v>
       </c>
       <c r="G24" t="n">
-        <v>3463.924920950164</v>
+        <v>137.9051026062692</v>
       </c>
       <c r="H24" t="n">
-        <v>3427.469563779101</v>
+        <v>101.4497454352064</v>
       </c>
       <c r="I24" t="n">
-        <v>3445.918907359699</v>
+        <v>145.9627621762616</v>
       </c>
       <c r="J24" t="n">
-        <v>3496.545316285769</v>
+        <v>521.1474960685445</v>
       </c>
       <c r="K24" t="n">
-        <v>4263.807432866574</v>
+        <v>607.6760925789729</v>
       </c>
       <c r="L24" t="n">
-        <v>4380.155809166891</v>
+        <v>724.0244688792895</v>
       </c>
       <c r="M24" t="n">
-        <v>4515.928876510983</v>
+        <v>859.7975362233819</v>
       </c>
       <c r="N24" t="n">
-        <v>4655.295452942302</v>
+        <v>999.1641126547015</v>
       </c>
       <c r="O24" t="n">
-        <v>4782.788642906211</v>
+        <v>1126.65730261861</v>
       </c>
       <c r="P24" t="n">
-        <v>4885.113167850423</v>
+        <v>1228.981827562821</v>
       </c>
       <c r="Q24" t="n">
-        <v>5039.217347209117</v>
+        <v>1596.024750770882</v>
       </c>
       <c r="R24" t="n">
-        <v>5072.48727176032</v>
+        <v>1746.467453416424</v>
       </c>
       <c r="S24" t="n">
-        <v>5019.187169984765</v>
+        <v>1693.16735164087</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.212246168543</v>
+        <v>1565.192427824647</v>
       </c>
       <c r="U24" t="n">
-        <v>4714.911668480587</v>
+        <v>1388.891850136692</v>
       </c>
       <c r="V24" t="n">
-        <v>4515.794150542586</v>
+        <v>1189.774332198691</v>
       </c>
       <c r="W24" t="n">
-        <v>4330.47139627578</v>
+        <v>1004.451577931885</v>
       </c>
       <c r="X24" t="n">
-        <v>4175.60396051466</v>
+        <v>849.5841421707649</v>
       </c>
       <c r="Y24" t="n">
-        <v>4049.118181293881</v>
+        <v>723.0983629499857</v>
       </c>
     </row>
     <row r="25">
@@ -6132,13 +6132,13 @@
         <v>823.75034800088</v>
       </c>
       <c r="E25" t="n">
-        <v>653.9923442516173</v>
+        <v>653.9923442516172</v>
       </c>
       <c r="F25" t="n">
-        <v>477.2852902133735</v>
+        <v>477.2852902133734</v>
       </c>
       <c r="G25" t="n">
-        <v>312.152378276145</v>
+        <v>312.1523782761449</v>
       </c>
       <c r="H25" t="n">
         <v>176.3254680586201</v>
@@ -6147,7 +6147,7 @@
         <v>101.4497454352064</v>
       </c>
       <c r="J25" t="n">
-        <v>133.2111274395682</v>
+        <v>133.2111274395681</v>
       </c>
       <c r="K25" t="n">
         <v>460.1632893548909</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2516.185384719492</v>
+        <v>2516.185384719491</v>
       </c>
       <c r="C26" t="n">
         <v>2078.042911902915</v>
       </c>
       <c r="D26" t="n">
-        <v>1642.13312707736</v>
+        <v>1642.133127077359</v>
       </c>
       <c r="E26" t="n">
-        <v>1208.358382235655</v>
+        <v>1208.358382235654</v>
       </c>
       <c r="F26" t="n">
-        <v>780.4909526448623</v>
+        <v>780.4909526448619</v>
       </c>
       <c r="G26" t="n">
-        <v>380.1149630316186</v>
+        <v>380.1149630316187</v>
       </c>
       <c r="H26" t="n">
         <v>101.4497454352064</v>
@@ -6229,34 +6229,34 @@
         <v>659.9082048555672</v>
       </c>
       <c r="K26" t="n">
-        <v>787.3036652044387</v>
+        <v>1621.653957162617</v>
       </c>
       <c r="L26" t="n">
-        <v>2020.408965097262</v>
+        <v>1779.699290802581</v>
       </c>
       <c r="M26" t="n">
-        <v>3164.06952878201</v>
+        <v>1955.555176552677</v>
       </c>
       <c r="N26" t="n">
-        <v>4419.510128542689</v>
+        <v>2134.256594385878</v>
       </c>
       <c r="O26" t="n">
-        <v>4588.252810026969</v>
+        <v>3213.444149234977</v>
       </c>
       <c r="P26" t="n">
-        <v>4732.270784673889</v>
+        <v>4185.771998715294</v>
       </c>
       <c r="Q26" t="n">
-        <v>4840.422285858007</v>
+        <v>4840.422285858006</v>
       </c>
       <c r="R26" t="n">
-        <v>5072.48727176032</v>
+        <v>5072.487271760319</v>
       </c>
       <c r="S26" t="n">
-        <v>5012.120617129751</v>
+        <v>5012.12061712975</v>
       </c>
       <c r="T26" t="n">
-        <v>4796.526502322479</v>
+        <v>4796.526502322478</v>
       </c>
       <c r="U26" t="n">
         <v>4537.385946980576</v>
@@ -6265,13 +6265,13 @@
         <v>4174.768996914402</v>
       </c>
       <c r="W26" t="n">
-        <v>3769.913542325436</v>
+        <v>3769.913542325435</v>
       </c>
       <c r="X26" t="n">
         <v>3350.771078904746</v>
       </c>
       <c r="Y26" t="n">
-        <v>2942.4849552044</v>
+        <v>2942.484955204399</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>601.7944618702227</v>
+        <v>601.7944618702226</v>
       </c>
       <c r="C27" t="n">
         <v>495.3380007068649</v>
       </c>
       <c r="D27" t="n">
-        <v>400.2477118534182</v>
+        <v>400.2477118534181</v>
       </c>
       <c r="E27" t="n">
-        <v>306.1272971803719</v>
+        <v>306.1272971803718</v>
       </c>
       <c r="F27" t="n">
         <v>222.7434587965335</v>
       </c>
       <c r="G27" t="n">
-        <v>137.9051026062693</v>
+        <v>137.9051026062692</v>
       </c>
       <c r="H27" t="n">
         <v>101.4497454352064</v>
       </c>
       <c r="I27" t="n">
-        <v>119.8990890158041</v>
+        <v>145.9627621762616</v>
       </c>
       <c r="J27" t="n">
-        <v>170.5254979418746</v>
+        <v>521.1474960685445</v>
       </c>
       <c r="K27" t="n">
-        <v>257.054094452303</v>
+        <v>607.6760925789729</v>
       </c>
       <c r="L27" t="n">
-        <v>373.4024707526196</v>
+        <v>724.0244688792895</v>
       </c>
       <c r="M27" t="n">
-        <v>509.1755380967119</v>
+        <v>859.7975362233819</v>
       </c>
       <c r="N27" t="n">
-        <v>1297.80580075834</v>
+        <v>999.1641126547015</v>
       </c>
       <c r="O27" t="n">
-        <v>1425.298990722249</v>
+        <v>1126.65730261861</v>
       </c>
       <c r="P27" t="n">
-        <v>1527.62351566646</v>
+        <v>1228.981827562821</v>
       </c>
       <c r="Q27" t="n">
         <v>1596.024750770882</v>
@@ -6335,7 +6335,7 @@
         <v>1693.16735164087</v>
       </c>
       <c r="T27" t="n">
-        <v>1565.192427824648</v>
+        <v>1565.192427824647</v>
       </c>
       <c r="U27" t="n">
         <v>1388.891850136692</v>
@@ -6347,10 +6347,10 @@
         <v>1004.451577931885</v>
       </c>
       <c r="X27" t="n">
-        <v>849.5841421707651</v>
+        <v>849.5841421707649</v>
       </c>
       <c r="Y27" t="n">
-        <v>723.0983629499858</v>
+        <v>723.0983629499857</v>
       </c>
     </row>
     <row r="28">
@@ -6369,13 +6369,13 @@
         <v>823.75034800088</v>
       </c>
       <c r="E28" t="n">
-        <v>653.9923442516173</v>
+        <v>653.9923442516172</v>
       </c>
       <c r="F28" t="n">
-        <v>477.2852902133735</v>
+        <v>477.2852902133734</v>
       </c>
       <c r="G28" t="n">
-        <v>312.152378276145</v>
+        <v>312.1523782761449</v>
       </c>
       <c r="H28" t="n">
         <v>176.3254680586201</v>
@@ -6384,25 +6384,25 @@
         <v>101.4497454352064</v>
       </c>
       <c r="J28" t="n">
-        <v>133.2111274395682</v>
+        <v>133.2111274395681</v>
       </c>
       <c r="K28" t="n">
-        <v>460.1632893548909</v>
+        <v>443.4643182575272</v>
       </c>
       <c r="L28" t="n">
-        <v>945.1631468589111</v>
+        <v>928.4641757615474</v>
       </c>
       <c r="M28" t="n">
-        <v>1475.067678807885</v>
+        <v>1458.368707710521</v>
       </c>
       <c r="N28" t="n">
-        <v>1986.072700723331</v>
+        <v>1969.373729625967</v>
       </c>
       <c r="O28" t="n">
-        <v>2469.240209869881</v>
+        <v>2452.541238772517</v>
       </c>
       <c r="P28" t="n">
-        <v>2871.080834865814</v>
+        <v>2854.381863768451</v>
       </c>
       <c r="Q28" t="n">
         <v>3060.192497658394</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2516.185384719492</v>
+        <v>2516.185384719493</v>
       </c>
       <c r="C29" t="n">
         <v>2078.042911902915</v>
       </c>
       <c r="D29" t="n">
-        <v>1642.13312707736</v>
+        <v>1642.133127077359</v>
       </c>
       <c r="E29" t="n">
-        <v>1208.358382235655</v>
+        <v>1208.358382235654</v>
       </c>
       <c r="F29" t="n">
-        <v>780.4909526448628</v>
+        <v>780.490952644862</v>
       </c>
       <c r="G29" t="n">
         <v>380.1149630316187</v>
@@ -6463,49 +6463,49 @@
         <v>139.6518531216431</v>
       </c>
       <c r="J29" t="n">
-        <v>422.0582867512848</v>
+        <v>659.9082048555672</v>
       </c>
       <c r="K29" t="n">
-        <v>549.4537471001564</v>
+        <v>1621.653957162617</v>
       </c>
       <c r="L29" t="n">
-        <v>1782.55904699298</v>
+        <v>1779.699290802581</v>
       </c>
       <c r="M29" t="n">
-        <v>1958.414932743076</v>
+        <v>1955.555176552677</v>
       </c>
       <c r="N29" t="n">
-        <v>3213.855532503755</v>
+        <v>2134.256594385878</v>
       </c>
       <c r="O29" t="n">
-        <v>3382.598213988034</v>
+        <v>3213.444149234978</v>
       </c>
       <c r="P29" t="n">
-        <v>4354.926063468351</v>
+        <v>4185.771998715295</v>
       </c>
       <c r="Q29" t="n">
-        <v>5009.576350611063</v>
+        <v>4840.422285858007</v>
       </c>
       <c r="R29" t="n">
         <v>5072.48727176032</v>
       </c>
       <c r="S29" t="n">
-        <v>5012.120617129751</v>
+        <v>5012.120617129752</v>
       </c>
       <c r="T29" t="n">
-        <v>4796.526502322479</v>
+        <v>4796.52650232248</v>
       </c>
       <c r="U29" t="n">
-        <v>4537.385946980576</v>
+        <v>4537.385946980577</v>
       </c>
       <c r="V29" t="n">
-        <v>4174.768996914402</v>
+        <v>4174.768996914403</v>
       </c>
       <c r="W29" t="n">
         <v>3769.913542325436</v>
       </c>
       <c r="X29" t="n">
-        <v>3350.771078904746</v>
+        <v>3350.771078904747</v>
       </c>
       <c r="Y29" t="n">
         <v>2942.4849552044</v>
@@ -6542,25 +6542,25 @@
         <v>119.8990890158041</v>
       </c>
       <c r="J30" t="n">
-        <v>396.2230236344473</v>
+        <v>495.0838229080869</v>
       </c>
       <c r="K30" t="n">
-        <v>482.7516201448757</v>
+        <v>581.6124194185153</v>
       </c>
       <c r="L30" t="n">
-        <v>599.0999964451925</v>
+        <v>697.9607957188319</v>
       </c>
       <c r="M30" t="n">
-        <v>734.8730637892847</v>
+        <v>833.7338630629243</v>
       </c>
       <c r="N30" t="n">
-        <v>874.2396402206043</v>
+        <v>973.1004394942439</v>
       </c>
       <c r="O30" t="n">
-        <v>1001.732830184513</v>
+        <v>1100.593629458152</v>
       </c>
       <c r="P30" t="n">
-        <v>1104.057355128724</v>
+        <v>1202.918154402364</v>
       </c>
       <c r="Q30" t="n">
         <v>1713.197528865222</v>
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2516.185384719491</v>
+        <v>2516.185384719492</v>
       </c>
       <c r="C32" t="n">
         <v>2078.042911902915</v>
@@ -6700,28 +6700,28 @@
         <v>139.6518531216431</v>
       </c>
       <c r="J32" t="n">
-        <v>224.6535174026493</v>
+        <v>659.9082048555672</v>
       </c>
       <c r="K32" t="n">
-        <v>352.0489777515209</v>
+        <v>1621.653957162617</v>
       </c>
       <c r="L32" t="n">
-        <v>1097.603327204081</v>
+        <v>1779.699290802581</v>
       </c>
       <c r="M32" t="n">
-        <v>2353.04392696476</v>
+        <v>1955.555176552677</v>
       </c>
       <c r="N32" t="n">
-        <v>3608.48452672544</v>
+        <v>2134.256594385878</v>
       </c>
       <c r="O32" t="n">
-        <v>4757.406874780026</v>
+        <v>3213.444149234978</v>
       </c>
       <c r="P32" t="n">
-        <v>4901.424849426946</v>
+        <v>4185.771998715295</v>
       </c>
       <c r="Q32" t="n">
-        <v>5009.576350611063</v>
+        <v>4840.422285858007</v>
       </c>
       <c r="R32" t="n">
         <v>5072.48727176032</v>
@@ -6745,7 +6745,7 @@
         <v>3350.771078904746</v>
       </c>
       <c r="Y32" t="n">
-        <v>2942.484955204399</v>
+        <v>2942.4849552044</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>101.4497454352064</v>
       </c>
       <c r="I33" t="n">
-        <v>119.8990890158041</v>
+        <v>145.9627621762616</v>
       </c>
       <c r="J33" t="n">
-        <v>396.2230236344473</v>
+        <v>196.5891711023322</v>
       </c>
       <c r="K33" t="n">
-        <v>482.7516201448757</v>
+        <v>283.1177676127606</v>
       </c>
       <c r="L33" t="n">
-        <v>599.0999964451925</v>
+        <v>399.4661439130773</v>
       </c>
       <c r="M33" t="n">
-        <v>734.8730637892847</v>
+        <v>535.2392112571696</v>
       </c>
       <c r="N33" t="n">
-        <v>874.2396402206043</v>
+        <v>674.6057876884893</v>
       </c>
       <c r="O33" t="n">
-        <v>1001.732830184513</v>
+        <v>802.0989776523974</v>
       </c>
       <c r="P33" t="n">
-        <v>1104.057355128724</v>
+        <v>986.8845770343844</v>
       </c>
       <c r="Q33" t="n">
-        <v>1713.197528865222</v>
+        <v>1596.024750770882</v>
       </c>
       <c r="R33" t="n">
         <v>1746.467453416424</v>
@@ -6858,25 +6858,25 @@
         <v>101.4497454352064</v>
       </c>
       <c r="J34" t="n">
-        <v>133.2111274395682</v>
+        <v>219.790812604258</v>
       </c>
       <c r="K34" t="n">
-        <v>460.1632893548909</v>
+        <v>546.7429745195807</v>
       </c>
       <c r="L34" t="n">
-        <v>945.1631468589111</v>
+        <v>1031.742832023601</v>
       </c>
       <c r="M34" t="n">
-        <v>1475.067678807885</v>
+        <v>1561.647363972575</v>
       </c>
       <c r="N34" t="n">
-        <v>1986.072700723331</v>
+        <v>2072.652385888021</v>
       </c>
       <c r="O34" t="n">
-        <v>2469.240209869881</v>
+        <v>2555.819895034571</v>
       </c>
       <c r="P34" t="n">
-        <v>2871.080834865814</v>
+        <v>2854.381863768451</v>
       </c>
       <c r="Q34" t="n">
         <v>3060.192497658394</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2516.185384719492</v>
+        <v>2516.185384719491</v>
       </c>
       <c r="C35" t="n">
         <v>2078.042911902915</v>
       </c>
       <c r="D35" t="n">
-        <v>1642.13312707736</v>
+        <v>1642.133127077359</v>
       </c>
       <c r="E35" t="n">
-        <v>1208.358382235655</v>
+        <v>1208.358382235654</v>
       </c>
       <c r="F35" t="n">
-        <v>780.4909526448623</v>
+        <v>780.490952644862</v>
       </c>
       <c r="G35" t="n">
-        <v>380.1149630316186</v>
+        <v>380.1149630316187</v>
       </c>
       <c r="H35" t="n">
         <v>101.4497454352064</v>
@@ -6937,52 +6937,52 @@
         <v>139.6518531216431</v>
       </c>
       <c r="J35" t="n">
-        <v>224.6535174026493</v>
+        <v>343.4233202306175</v>
       </c>
       <c r="K35" t="n">
-        <v>352.0489777515209</v>
+        <v>1305.169072537667</v>
       </c>
       <c r="L35" t="n">
-        <v>1585.154277644344</v>
+        <v>2538.274372430491</v>
       </c>
       <c r="M35" t="n">
-        <v>2840.594877405023</v>
+        <v>2714.130258180587</v>
       </c>
       <c r="N35" t="n">
-        <v>4096.035477165703</v>
+        <v>2892.831676013788</v>
       </c>
       <c r="O35" t="n">
-        <v>4757.406874780026</v>
+        <v>4041.754024068374</v>
       </c>
       <c r="P35" t="n">
-        <v>4901.424849426946</v>
+        <v>4185.771998715295</v>
       </c>
       <c r="Q35" t="n">
-        <v>5009.576350611063</v>
+        <v>4840.422285858007</v>
       </c>
       <c r="R35" t="n">
         <v>5072.48727176032</v>
       </c>
       <c r="S35" t="n">
-        <v>5012.120617129751</v>
+        <v>5012.120617129752</v>
       </c>
       <c r="T35" t="n">
-        <v>4796.526502322479</v>
+        <v>4796.52650232248</v>
       </c>
       <c r="U35" t="n">
-        <v>4537.385946980576</v>
+        <v>4537.385946980577</v>
       </c>
       <c r="V35" t="n">
-        <v>4174.768996914402</v>
+        <v>4174.768996914403</v>
       </c>
       <c r="W35" t="n">
         <v>3769.913542325436</v>
       </c>
       <c r="X35" t="n">
-        <v>3350.771078904746</v>
+        <v>3350.771078904747</v>
       </c>
       <c r="Y35" t="n">
-        <v>2942.4849552044</v>
+        <v>2942.484955204399</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>101.4497454352064</v>
       </c>
       <c r="I36" t="n">
-        <v>119.8990890158041</v>
+        <v>145.9627621762616</v>
       </c>
       <c r="J36" t="n">
-        <v>396.2230236344473</v>
+        <v>196.5891711023322</v>
       </c>
       <c r="K36" t="n">
-        <v>482.7516201448757</v>
+        <v>283.1177676127606</v>
       </c>
       <c r="L36" t="n">
-        <v>599.0999964451925</v>
+        <v>399.4661439130773</v>
       </c>
       <c r="M36" t="n">
-        <v>734.8730637892847</v>
+        <v>535.2392112571696</v>
       </c>
       <c r="N36" t="n">
-        <v>874.2396402206043</v>
+        <v>674.6057876884893</v>
       </c>
       <c r="O36" t="n">
-        <v>1001.732830184513</v>
+        <v>802.0989776523974</v>
       </c>
       <c r="P36" t="n">
-        <v>1104.057355128724</v>
+        <v>986.8845770343844</v>
       </c>
       <c r="Q36" t="n">
-        <v>1713.197528865222</v>
+        <v>1596.024750770882</v>
       </c>
       <c r="R36" t="n">
         <v>1746.467453416424</v>
@@ -7098,22 +7098,22 @@
         <v>133.2111274395682</v>
       </c>
       <c r="K37" t="n">
-        <v>460.1632893548909</v>
+        <v>443.4643182575272</v>
       </c>
       <c r="L37" t="n">
-        <v>945.1631468589111</v>
+        <v>928.4641757615474</v>
       </c>
       <c r="M37" t="n">
-        <v>1475.067678807885</v>
+        <v>1458.368707710521</v>
       </c>
       <c r="N37" t="n">
-        <v>1986.072700723331</v>
+        <v>1969.373729625967</v>
       </c>
       <c r="O37" t="n">
-        <v>2469.240209869881</v>
+        <v>2452.541238772517</v>
       </c>
       <c r="P37" t="n">
-        <v>2871.080834865814</v>
+        <v>2854.381863768451</v>
       </c>
       <c r="Q37" t="n">
         <v>3060.192497658394</v>
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2516.185384719491</v>
+        <v>2516.185384719492</v>
       </c>
       <c r="C38" t="n">
         <v>2078.042911902915</v>
@@ -7162,7 +7162,7 @@
         <v>1208.358382235654</v>
       </c>
       <c r="F38" t="n">
-        <v>780.4909526448619</v>
+        <v>780.490952644862</v>
       </c>
       <c r="G38" t="n">
         <v>380.1149630316187</v>
@@ -7177,40 +7177,40 @@
         <v>659.9082048555672</v>
       </c>
       <c r="K38" t="n">
-        <v>1551.919163957131</v>
+        <v>1621.653957162617</v>
       </c>
       <c r="L38" t="n">
-        <v>1709.964497597095</v>
+        <v>1779.699290802581</v>
       </c>
       <c r="M38" t="n">
-        <v>1885.820383347191</v>
+        <v>1955.555176552677</v>
       </c>
       <c r="N38" t="n">
-        <v>2064.521801180392</v>
+        <v>3210.995776313356</v>
       </c>
       <c r="O38" t="n">
-        <v>3213.444149234978</v>
+        <v>3379.738457797635</v>
       </c>
       <c r="P38" t="n">
-        <v>4185.771998715295</v>
+        <v>4352.066307277953</v>
       </c>
       <c r="Q38" t="n">
-        <v>4840.422285858007</v>
+        <v>4840.422285858006</v>
       </c>
       <c r="R38" t="n">
-        <v>5072.48727176032</v>
+        <v>5072.487271760319</v>
       </c>
       <c r="S38" t="n">
         <v>5012.12061712975</v>
       </c>
       <c r="T38" t="n">
-        <v>4796.526502322478</v>
+        <v>4796.526502322479</v>
       </c>
       <c r="U38" t="n">
-        <v>4537.385946980575</v>
+        <v>4537.385946980576</v>
       </c>
       <c r="V38" t="n">
-        <v>4174.768996914401</v>
+        <v>4174.768996914402</v>
       </c>
       <c r="W38" t="n">
         <v>3769.913542325435</v>
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>601.7944618702227</v>
+        <v>601.7944618702226</v>
       </c>
       <c r="C39" t="n">
         <v>495.3380007068649</v>
       </c>
       <c r="D39" t="n">
-        <v>400.2477118534182</v>
+        <v>400.2477118534181</v>
       </c>
       <c r="E39" t="n">
-        <v>306.1272971803719</v>
+        <v>306.1272971803718</v>
       </c>
       <c r="F39" t="n">
         <v>222.7434587965335</v>
       </c>
       <c r="G39" t="n">
-        <v>137.9051026062693</v>
+        <v>137.9051026062692</v>
       </c>
       <c r="H39" t="n">
         <v>101.4497454352064</v>
@@ -7253,25 +7253,25 @@
         <v>145.9627621762616</v>
       </c>
       <c r="J39" t="n">
-        <v>521.1474960685445</v>
+        <v>196.5891711023322</v>
       </c>
       <c r="K39" t="n">
-        <v>607.6760925789729</v>
+        <v>283.1177676127606</v>
       </c>
       <c r="L39" t="n">
-        <v>1022.666156982928</v>
+        <v>399.4661439130773</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.439224327021</v>
+        <v>535.2392112571696</v>
       </c>
       <c r="N39" t="n">
-        <v>1297.80580075834</v>
+        <v>674.6057876884893</v>
       </c>
       <c r="O39" t="n">
-        <v>1425.298990722249</v>
+        <v>802.0989776523974</v>
       </c>
       <c r="P39" t="n">
-        <v>1527.62351566646</v>
+        <v>986.8845770343842</v>
       </c>
       <c r="Q39" t="n">
         <v>1596.024750770882</v>
@@ -7283,7 +7283,7 @@
         <v>1693.16735164087</v>
       </c>
       <c r="T39" t="n">
-        <v>1565.192427824648</v>
+        <v>1565.192427824647</v>
       </c>
       <c r="U39" t="n">
         <v>1388.891850136692</v>
@@ -7295,10 +7295,10 @@
         <v>1004.451577931885</v>
       </c>
       <c r="X39" t="n">
-        <v>849.5841421707651</v>
+        <v>849.5841421707649</v>
       </c>
       <c r="Y39" t="n">
-        <v>723.0983629499858</v>
+        <v>723.0983629499857</v>
       </c>
     </row>
     <row r="40">
@@ -7317,13 +7317,13 @@
         <v>823.75034800088</v>
       </c>
       <c r="E40" t="n">
-        <v>653.9923442516173</v>
+        <v>653.9923442516172</v>
       </c>
       <c r="F40" t="n">
-        <v>477.2852902133735</v>
+        <v>477.2852902133734</v>
       </c>
       <c r="G40" t="n">
-        <v>312.152378276145</v>
+        <v>312.1523782761449</v>
       </c>
       <c r="H40" t="n">
         <v>176.3254680586201</v>
@@ -7332,7 +7332,7 @@
         <v>101.4497454352064</v>
       </c>
       <c r="J40" t="n">
-        <v>133.2111274395682</v>
+        <v>133.2111274395681</v>
       </c>
       <c r="K40" t="n">
         <v>460.1632893548909</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1360.541645175691</v>
+        <v>2475.118144431697</v>
       </c>
       <c r="C41" t="n">
-        <v>922.3991723591139</v>
+        <v>2036.97567161512</v>
       </c>
       <c r="D41" t="n">
-        <v>486.4893875335584</v>
+        <v>1601.065886789565</v>
       </c>
       <c r="E41" t="n">
-        <v>486.4893875335584</v>
+        <v>1167.29114194786</v>
       </c>
       <c r="F41" t="n">
-        <v>60.38250514741202</v>
+        <v>739.4237123570675</v>
       </c>
       <c r="G41" t="n">
-        <v>60.38250514741202</v>
+        <v>339.0477227438243</v>
       </c>
       <c r="H41" t="n">
-        <v>60.38250514741202</v>
+        <v>60.382505147412</v>
       </c>
       <c r="I41" t="n">
-        <v>98.58461283384874</v>
+        <v>98.58461283384872</v>
       </c>
       <c r="J41" t="n">
         <v>618.8409645677729</v>
@@ -7426,37 +7426,37 @@
         <v>1258.839062139905</v>
       </c>
       <c r="O41" t="n">
-        <v>1988.392009678655</v>
+        <v>1427.581743624185</v>
       </c>
       <c r="P41" t="n">
-        <v>2132.409984325574</v>
+        <v>2132.409984325573</v>
       </c>
       <c r="Q41" t="n">
-        <v>2787.060271468287</v>
+        <v>2787.060271468285</v>
       </c>
       <c r="R41" t="n">
-        <v>3019.125257370601</v>
+        <v>3019.1252573706</v>
       </c>
       <c r="S41" t="n">
-        <v>3019.125257370601</v>
+        <v>2958.758602740031</v>
       </c>
       <c r="T41" t="n">
-        <v>3019.125257370601</v>
+        <v>2958.758602740031</v>
       </c>
       <c r="U41" t="n">
-        <v>3019.125257370601</v>
+        <v>2958.758602740031</v>
       </c>
       <c r="V41" t="n">
-        <v>3019.125257370601</v>
+        <v>2958.758602740031</v>
       </c>
       <c r="W41" t="n">
-        <v>2614.269802781634</v>
+        <v>2958.758602740031</v>
       </c>
       <c r="X41" t="n">
-        <v>2195.127339360945</v>
+        <v>2958.758602740031</v>
       </c>
       <c r="Y41" t="n">
-        <v>1786.841215660598</v>
+        <v>2901.417714916605</v>
       </c>
     </row>
     <row r="42">
@@ -7472,34 +7472,34 @@
         <v>454.2707604190705</v>
       </c>
       <c r="D42" t="n">
-        <v>359.1804715656238</v>
+        <v>359.1804715656237</v>
       </c>
       <c r="E42" t="n">
-        <v>265.0600568925775</v>
+        <v>265.0600568925774</v>
       </c>
       <c r="F42" t="n">
         <v>181.6762185087391</v>
       </c>
       <c r="G42" t="n">
-        <v>96.83786231847486</v>
+        <v>96.83786231847483</v>
       </c>
       <c r="H42" t="n">
-        <v>60.38250514741202</v>
+        <v>60.382505147412</v>
       </c>
       <c r="I42" t="n">
-        <v>78.83184872800966</v>
+        <v>104.8955218884672</v>
       </c>
       <c r="J42" t="n">
-        <v>129.4582576540802</v>
+        <v>237.9830052523133</v>
       </c>
       <c r="K42" t="n">
-        <v>215.9868541645086</v>
+        <v>324.5116017627417</v>
       </c>
       <c r="L42" t="n">
-        <v>332.3352304648253</v>
+        <v>440.8599780630584</v>
       </c>
       <c r="M42" t="n">
-        <v>468.1082978089176</v>
+        <v>576.6330454071507</v>
       </c>
       <c r="N42" t="n">
         <v>715.9996218384704</v>
@@ -7566,10 +7566,10 @@
         <v>135.2582277708257</v>
       </c>
       <c r="I43" t="n">
-        <v>60.38250514741202</v>
+        <v>60.382505147412</v>
       </c>
       <c r="J43" t="n">
-        <v>92.14388715177375</v>
+        <v>92.14388715177374</v>
       </c>
       <c r="K43" t="n">
         <v>419.0960490670964</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1779.68410859638</v>
+        <v>1796.076937222041</v>
       </c>
       <c r="C44" t="n">
-        <v>1341.541635779803</v>
+        <v>1357.934464405465</v>
       </c>
       <c r="D44" t="n">
-        <v>905.6318509542475</v>
+        <v>922.0246795799092</v>
       </c>
       <c r="E44" t="n">
-        <v>739.4237123570675</v>
+        <v>488.2499347382043</v>
       </c>
       <c r="F44" t="n">
-        <v>739.4237123570675</v>
+        <v>60.382505147412</v>
       </c>
       <c r="G44" t="n">
-        <v>339.0477227438243</v>
+        <v>60.382505147412</v>
       </c>
       <c r="H44" t="n">
-        <v>60.38250514741202</v>
+        <v>60.382505147412</v>
       </c>
       <c r="I44" t="n">
-        <v>98.58461283384874</v>
+        <v>98.58461283384872</v>
       </c>
       <c r="J44" t="n">
         <v>618.8409645677729</v>
       </c>
       <c r="K44" t="n">
-        <v>1307.046690971114</v>
+        <v>746.2364249166444</v>
       </c>
       <c r="L44" t="n">
-        <v>1465.092024611078</v>
+        <v>904.2817585566083</v>
       </c>
       <c r="M44" t="n">
-        <v>1640.947910361174</v>
+        <v>1080.137644306704</v>
       </c>
       <c r="N44" t="n">
-        <v>1819.649328194375</v>
+        <v>1258.839062139905</v>
       </c>
       <c r="O44" t="n">
-        <v>1988.392009678655</v>
+        <v>1427.581743624185</v>
       </c>
       <c r="P44" t="n">
-        <v>2132.409984325574</v>
+        <v>2132.409984325573</v>
       </c>
       <c r="Q44" t="n">
-        <v>2787.060271468287</v>
+        <v>2787.060271468285</v>
       </c>
       <c r="R44" t="n">
-        <v>3019.125257370601</v>
+        <v>3019.1252573706</v>
       </c>
       <c r="S44" t="n">
-        <v>3019.125257370601</v>
+        <v>3019.1252573706</v>
       </c>
       <c r="T44" t="n">
-        <v>3019.125257370601</v>
+        <v>3019.1252573706</v>
       </c>
       <c r="U44" t="n">
-        <v>3019.125257370601</v>
+        <v>3019.1252573706</v>
       </c>
       <c r="V44" t="n">
-        <v>3019.125257370601</v>
+        <v>3019.1252573706</v>
       </c>
       <c r="W44" t="n">
-        <v>2614.269802781634</v>
+        <v>3019.1252573706</v>
       </c>
       <c r="X44" t="n">
-        <v>2614.269802781634</v>
+        <v>2599.982793949911</v>
       </c>
       <c r="Y44" t="n">
-        <v>2205.983679081287</v>
+        <v>2191.696670249564</v>
       </c>
     </row>
     <row r="45">
@@ -7709,43 +7709,43 @@
         <v>454.2707604190705</v>
       </c>
       <c r="D45" t="n">
-        <v>359.1804715656238</v>
+        <v>359.1804715656237</v>
       </c>
       <c r="E45" t="n">
-        <v>265.0600568925775</v>
+        <v>265.0600568925774</v>
       </c>
       <c r="F45" t="n">
         <v>181.6762185087391</v>
       </c>
       <c r="G45" t="n">
-        <v>96.83786231847486</v>
+        <v>96.83786231847483</v>
       </c>
       <c r="H45" t="n">
-        <v>60.38250514741202</v>
+        <v>60.382505147412</v>
       </c>
       <c r="I45" t="n">
         <v>104.8955218884672</v>
       </c>
       <c r="J45" t="n">
-        <v>155.5219308145378</v>
+        <v>480.0802557807501</v>
       </c>
       <c r="K45" t="n">
-        <v>242.0505273249662</v>
+        <v>566.6088522911784</v>
       </c>
       <c r="L45" t="n">
-        <v>981.5989166951339</v>
+        <v>682.9572285914951</v>
       </c>
       <c r="M45" t="n">
-        <v>1117.371984039226</v>
+        <v>818.7302959355875</v>
       </c>
       <c r="N45" t="n">
-        <v>1256.738560470546</v>
+        <v>958.0968723669071</v>
       </c>
       <c r="O45" t="n">
-        <v>1384.231750434454</v>
+        <v>1085.590062330815</v>
       </c>
       <c r="P45" t="n">
-        <v>1486.556275378666</v>
+        <v>1187.914587275027</v>
       </c>
       <c r="Q45" t="n">
         <v>1554.957510483088</v>
@@ -7803,10 +7803,10 @@
         <v>135.2582277708257</v>
       </c>
       <c r="I46" t="n">
-        <v>60.38250514741202</v>
+        <v>60.382505147412</v>
       </c>
       <c r="J46" t="n">
-        <v>92.14388715177375</v>
+        <v>92.14388715177374</v>
       </c>
       <c r="K46" t="n">
         <v>419.0960490670964</v>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M2" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -7999,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>41.31500304752734</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>13.31876740878121</v>
+      </c>
+      <c r="Q3" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8145,13 +8145,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="O4" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>39.64570999510202</v>
       </c>
       <c r="P4" t="n">
         <v>41.31500304752734</v>
@@ -8218,13 +8218,13 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K5" t="n">
-        <v>41.31500304752736</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8236,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>41.31500304752734</v>
@@ -8291,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="Q6" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="L6" t="n">
-        <v>13.31876740878121</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>41.31500304752734</v>
@@ -8382,19 +8382,19 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>39.64570999510201</v>
+      </c>
+      <c r="Q7" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>39.64570999510201</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>39.64570999510202</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>41.31500304752735</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Q9" t="n">
         <v>41.31500304752734</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K10" t="n">
+      <c r="O10" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="L10" t="n">
+      <c r="P10" t="n">
+        <v>41.31500304752734</v>
+      </c>
+      <c r="Q10" t="n">
         <v>39.64570999510201</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>566.4750162166353</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>566.4750162166351</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>227.9772986793662</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>301.6582708117562</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,7 +8850,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>260.6661449230028</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
@@ -8868,7 +8868,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.0240442090603</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>626.0990311619718</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>380.0271845020552</v>
+        <v>566.4750162166353</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>301.6582708117562</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>446.3415549075112</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>260.6661449230019</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
@@ -9105,7 +9105,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.0240442090603</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>919.6412862270913</v>
+        <v>919.6412862270909</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>227.9772986793664</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>83.29401458361167</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1090.4896101117</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1087.615335280281</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>326.7420720979662</v>
+        <v>919.6412862270909</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>327.985213398077</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>301.6582708117564</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9640,7 +9640,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>772.338887628982</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>919.6412862270899</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>86.56863055987196</v>
+        <v>301.6582708117562</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,25 +9877,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>977.5804827622742</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1087.615335280281</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>919.6412862270899</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>655.8219052831402</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>301.6582708117562</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>260.666144923002</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.0240442090594</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>199.3987569178137</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1087.615335280281</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>919.6412862270909</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10135,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>227.9772986793664</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>446.3415549075112</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>593.4434503157536</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1090.4896101117</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1087.615335280281</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>919.6412862270909</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>227.9772986793664</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>83.29401458361167</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10524,10 +10524,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>246.6951896043311</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.0240442090594</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>119.9694978060284</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1090.4896101117</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1087.615335280281</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>497.6047637677202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>227.9772986793664</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>83.29401458361167</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>260.6661449230019</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
@@ -10764,7 +10764,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.0240442090594</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>772.338887628982</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10834,16 +10834,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1087.615335280281</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>384.0449266625619</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10901,13 +10901,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>301.6582708117562</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>83.29401458361144</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11074,10 +11074,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>566.4750162166358</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>566.4750162166342</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>83.29401458361167</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>109.6209571699325</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>566.4750162166356</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>566.4750162166342</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11375,13 +11375,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>629.4949626968192</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>301.6582708117564</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>30.37303908281046</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>396.3722297171108</v>
+        <v>191.1439543348897</v>
       </c>
       <c r="H11" t="n">
-        <v>275.8785654204481</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>59.76298808426328</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>213.4381736591986</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5491497884846</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23500,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>167.8549439099547</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>396.3722297171108</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>275.8785654204481</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>59.76298808426328</v>
       </c>
       <c r="T14" t="n">
-        <v>213.4381736591986</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.5491497884846</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>332.949824911345</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.742941732599434</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>396.3722297171108</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>275.8785654204481</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>59.76298808426328</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>213.4381736591986</v>
@@ -25690,13 +25690,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>347.4357835181515</v>
       </c>
     </row>
     <row r="42">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>30.37303908281149</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>264.8909401820796</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>396.3722297171108</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>275.8785654204481</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>583509.1323290239</v>
+        <v>583509.1323290238</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>583509.1323290239</v>
+        <v>583509.1323290238</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>583509.1323290239</v>
+        <v>583509.1323290238</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>583509.1323290239</v>
+        <v>583509.1323290238</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>583509.1323290239</v>
+        <v>583509.1323290238</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>583509.1323290239</v>
+        <v>583509.1323290238</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>583509.1323290239</v>
+        <v>583509.1323290238</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>583509.1323290239</v>
+        <v>583509.1323290238</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>396134.8817028825</v>
+        <v>396134.8817028824</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>396134.8817028825</v>
+        <v>396134.8817028824</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>482532.5879013677</v>
       </c>
       <c r="C2" t="n">
-        <v>482532.5879013675</v>
+        <v>482532.5879013677</v>
       </c>
       <c r="D2" t="n">
         <v>482532.5879013676</v>
@@ -26328,31 +26328,31 @@
         <v>339813.3982608723</v>
       </c>
       <c r="G2" t="n">
-        <v>482532.5879013676</v>
+        <v>482532.5879013675</v>
       </c>
       <c r="H2" t="n">
-        <v>482532.5879013676</v>
+        <v>482532.5879013675</v>
       </c>
       <c r="I2" t="n">
         <v>482532.5879013676</v>
       </c>
       <c r="J2" t="n">
-        <v>482532.5879013676</v>
+        <v>482532.5879013674</v>
       </c>
       <c r="K2" t="n">
-        <v>482532.5879013676</v>
+        <v>482532.5879013675</v>
       </c>
       <c r="L2" t="n">
         <v>482532.5879013676</v>
       </c>
       <c r="M2" t="n">
-        <v>482532.5879013676</v>
+        <v>482532.5879013675</v>
       </c>
       <c r="N2" t="n">
-        <v>482532.5879013676</v>
+        <v>482532.5879013675</v>
       </c>
       <c r="O2" t="n">
-        <v>339813.3982608723</v>
+        <v>339813.3982608722</v>
       </c>
       <c r="P2" t="n">
         <v>339813.3982608723</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26438,16 +26438,16 @@
         <v>128596.7182463694</v>
       </c>
       <c r="I4" t="n">
-        <v>128596.7182463694</v>
+        <v>128596.7182463693</v>
       </c>
       <c r="J4" t="n">
-        <v>128596.7182463694</v>
+        <v>128596.7182463693</v>
       </c>
       <c r="K4" t="n">
         <v>128596.7182463694</v>
       </c>
       <c r="L4" t="n">
-        <v>128596.7182463693</v>
+        <v>128596.7182463694</v>
       </c>
       <c r="M4" t="n">
         <v>128596.7182463694</v>
@@ -26456,10 +26456,10 @@
         <v>128596.7182463694</v>
       </c>
       <c r="O4" t="n">
-        <v>75770.11844632434</v>
+        <v>75770.11844632431</v>
       </c>
       <c r="P4" t="n">
-        <v>75770.11844632434</v>
+        <v>75770.11844632431</v>
       </c>
     </row>
     <row r="5">
@@ -26490,10 +26490,10 @@
         <v>82587.58702950807</v>
       </c>
       <c r="I5" t="n">
-        <v>82587.58702950807</v>
+        <v>82587.58702950805</v>
       </c>
       <c r="J5" t="n">
-        <v>82587.58702950807</v>
+        <v>82587.58702950805</v>
       </c>
       <c r="K5" t="n">
         <v>82587.58702950807</v>
@@ -26505,13 +26505,13 @@
         <v>82587.58702950807</v>
       </c>
       <c r="N5" t="n">
-        <v>82587.58702950807</v>
+        <v>82587.58702950805</v>
       </c>
       <c r="O5" t="n">
-        <v>51376.48441078434</v>
+        <v>51376.48441078432</v>
       </c>
       <c r="P5" t="n">
-        <v>51376.48441078434</v>
+        <v>51376.48441078432</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>132095.0411997958</v>
       </c>
       <c r="C6" t="n">
-        <v>145940.6489660921</v>
+        <v>145940.6489660923</v>
       </c>
       <c r="D6" t="n">
         <v>145940.6489660922</v>
       </c>
       <c r="E6" t="n">
-        <v>-202527.9300845251</v>
+        <v>-202924.372277971</v>
       </c>
       <c r="F6" t="n">
-        <v>212666.7954037637</v>
+        <v>212270.3532103178</v>
       </c>
       <c r="G6" t="n">
-        <v>130649.3506969886</v>
+        <v>130649.3506969884</v>
       </c>
       <c r="H6" t="n">
+        <v>271348.28262549</v>
+      </c>
+      <c r="I6" t="n">
         <v>271348.2826254902</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>260538.4599681227</v>
+      </c>
+      <c r="K6" t="n">
+        <v>271348.28262549</v>
+      </c>
+      <c r="L6" t="n">
         <v>271348.2826254901</v>
       </c>
-      <c r="J6" t="n">
-        <v>260538.4599681229</v>
-      </c>
-      <c r="K6" t="n">
-        <v>271348.2826254902</v>
-      </c>
-      <c r="L6" t="n">
-        <v>271348.2826254902</v>
-      </c>
       <c r="M6" t="n">
-        <v>93549.62398550042</v>
+        <v>93549.62398550035</v>
       </c>
       <c r="N6" t="n">
-        <v>271348.2826254902</v>
+        <v>271348.28262549</v>
       </c>
       <c r="O6" t="n">
-        <v>212666.7954037637</v>
+        <v>212270.3532103178</v>
       </c>
       <c r="P6" t="n">
-        <v>212666.7954037637</v>
+        <v>212270.3532103178</v>
       </c>
     </row>
   </sheetData>
@@ -26828,10 +26828,10 @@
         <v>1268.12181794008</v>
       </c>
       <c r="O4" t="n">
-        <v>754.7813143426503</v>
+        <v>754.7813143426499</v>
       </c>
       <c r="P4" t="n">
-        <v>754.7813143426503</v>
+        <v>754.7813143426499</v>
       </c>
     </row>
   </sheetData>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>513.3405035974298</v>
+        <v>513.3405035974299</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>513.3405035974298</v>
+        <v>513.3405035974299</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.77585902143818</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C3" t="n">
-        <v>105.3918965517241</v>
+        <v>64.07689350419679</v>
       </c>
       <c r="D3" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E3" t="n">
         <v>93.17921052631581</v>
@@ -27472,10 +27472,10 @@
         <v>82.55</v>
       </c>
       <c r="G3" t="n">
-        <v>43.21623578895061</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003292614422299778</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27514,10 +27514,10 @@
         <v>128.8768572327044</v>
       </c>
       <c r="U3" t="n">
-        <v>138.1829268457693</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V3" t="n">
-        <v>197.1263427586206</v>
+        <v>160.7360880743585</v>
       </c>
       <c r="W3" t="n">
         <v>183.4695267241379</v>
@@ -27526,7 +27526,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
-        <v>125.2209214285714</v>
+        <v>83.90591838104407</v>
       </c>
     </row>
     <row r="4">
@@ -27545,16 +27545,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>122.6203591769033</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>123.316540963949</v>
+        <v>97.18814951900188</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27587,19 +27587,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>202.1056489098019</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>242.7709500007465</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>254.1195287669911</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -27697,22 +27697,22 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C6" t="n">
-        <v>69.00164186746204</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
-        <v>52.82438291738493</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E6" t="n">
-        <v>93.17921052631581</v>
+        <v>56.78895584205373</v>
       </c>
       <c r="F6" t="n">
-        <v>82.55</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G6" t="n">
         <v>43.21623578895061</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003292614422299778</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>62.82088317610075</v>
+        <v>21.5058801285734</v>
       </c>
       <c r="T6" t="n">
         <v>128.8768572327044</v>
@@ -27791,10 +27791,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>102.1128978822671</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>46.45834668554406</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>202.1056489098019</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>260.4620591368455</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>242.7709500007465</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>227.991137322044</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>201.6228340723943</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -27940,16 +27940,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>56.78895584205373</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>41.23499695247265</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>43.21623578895061</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003292614422299778</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27985,16 +27985,16 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T9" t="n">
-        <v>128.8768572327044</v>
+        <v>87.56185418517705</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5731815300314</v>
+        <v>133.258178482504</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>147.0792720398758</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>148.5854294842699</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>159.7533718952811</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>122.6203591769033</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>97.18814951900188</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>46.45834668554406</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>142.462343412403</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -31761,7 +31761,7 @@
         <v>39.00060904118869</v>
       </c>
       <c r="J11" t="n">
-        <v>85.86026695051133</v>
+        <v>85.86026695051135</v>
       </c>
       <c r="K11" t="n">
         <v>128.6822831806784</v>
@@ -31776,7 +31776,7 @@
         <v>180.506482659799</v>
       </c>
       <c r="O11" t="n">
-        <v>170.4471530144239</v>
+        <v>170.447153014424</v>
       </c>
       <c r="P11" t="n">
         <v>145.4727016635558</v>
@@ -31785,13 +31785,13 @@
         <v>109.2439405900179</v>
       </c>
       <c r="R11" t="n">
-        <v>63.54638499924956</v>
+        <v>63.54638499924957</v>
       </c>
       <c r="S11" t="n">
         <v>23.05236699373808</v>
       </c>
       <c r="T11" t="n">
-        <v>4.428381196493182</v>
+        <v>4.428381196493183</v>
       </c>
       <c r="U11" t="n">
         <v>0.08092986766863605</v>
@@ -31834,13 +31834,13 @@
         <v>0.541266208116356</v>
       </c>
       <c r="H12" t="n">
-        <v>5.227492062597438</v>
+        <v>5.227492062597439</v>
       </c>
       <c r="I12" t="n">
         <v>18.63570058646226</v>
       </c>
       <c r="J12" t="n">
-        <v>51.13778679401063</v>
+        <v>51.13778679401064</v>
       </c>
       <c r="K12" t="n">
         <v>87.40262273780648</v>
@@ -31864,7 +31864,7 @@
         <v>69.09215667113344</v>
       </c>
       <c r="R12" t="n">
-        <v>33.60598439515411</v>
+        <v>33.60598439515412</v>
       </c>
       <c r="S12" t="n">
         <v>10.0537824183016</v>
@@ -31913,19 +31913,19 @@
         <v>0.4537794065743967</v>
       </c>
       <c r="H13" t="n">
-        <v>4.034511451179639</v>
+        <v>4.03451145117964</v>
       </c>
       <c r="I13" t="n">
         <v>13.64638433589186</v>
       </c>
       <c r="J13" t="n">
-        <v>32.08220404480984</v>
+        <v>32.08220404480985</v>
       </c>
       <c r="K13" t="n">
         <v>52.7209165092799</v>
       </c>
       <c r="L13" t="n">
-        <v>67.46462195561531</v>
+        <v>67.46462195561533</v>
       </c>
       <c r="M13" t="n">
         <v>71.13198461420292</v>
@@ -31934,7 +31934,7 @@
         <v>69.44062500788023</v>
       </c>
       <c r="O13" t="n">
-        <v>64.13965648562474</v>
+        <v>64.13965648562476</v>
       </c>
       <c r="P13" t="n">
         <v>54.88255659150701</v>
@@ -31946,7 +31946,7 @@
         <v>20.40357222651787</v>
       </c>
       <c r="S13" t="n">
-        <v>7.908137476391983</v>
+        <v>7.908137476391984</v>
       </c>
       <c r="T13" t="n">
         <v>1.938875646272422</v>
@@ -31998,7 +31998,7 @@
         <v>39.00060904118869</v>
       </c>
       <c r="J14" t="n">
-        <v>85.86026695051133</v>
+        <v>85.86026695051135</v>
       </c>
       <c r="K14" t="n">
         <v>128.6822831806784</v>
@@ -32013,7 +32013,7 @@
         <v>180.506482659799</v>
       </c>
       <c r="O14" t="n">
-        <v>170.4471530144239</v>
+        <v>170.447153014424</v>
       </c>
       <c r="P14" t="n">
         <v>145.4727016635558</v>
@@ -32022,13 +32022,13 @@
         <v>109.2439405900179</v>
       </c>
       <c r="R14" t="n">
-        <v>63.54638499924956</v>
+        <v>63.54638499924957</v>
       </c>
       <c r="S14" t="n">
         <v>23.05236699373808</v>
       </c>
       <c r="T14" t="n">
-        <v>4.428381196493182</v>
+        <v>4.428381196493183</v>
       </c>
       <c r="U14" t="n">
         <v>0.08092986766863605</v>
@@ -32071,13 +32071,13 @@
         <v>0.541266208116356</v>
       </c>
       <c r="H15" t="n">
-        <v>5.227492062597438</v>
+        <v>5.227492062597439</v>
       </c>
       <c r="I15" t="n">
         <v>18.63570058646226</v>
       </c>
       <c r="J15" t="n">
-        <v>51.13778679401063</v>
+        <v>51.13778679401064</v>
       </c>
       <c r="K15" t="n">
         <v>87.40262273780648</v>
@@ -32101,7 +32101,7 @@
         <v>69.09215667113344</v>
       </c>
       <c r="R15" t="n">
-        <v>33.60598439515411</v>
+        <v>33.60598439515412</v>
       </c>
       <c r="S15" t="n">
         <v>10.0537824183016</v>
@@ -32150,19 +32150,19 @@
         <v>0.4537794065743967</v>
       </c>
       <c r="H16" t="n">
-        <v>4.034511451179639</v>
+        <v>4.03451145117964</v>
       </c>
       <c r="I16" t="n">
         <v>13.64638433589186</v>
       </c>
       <c r="J16" t="n">
-        <v>32.08220404480984</v>
+        <v>32.08220404480985</v>
       </c>
       <c r="K16" t="n">
         <v>52.7209165092799</v>
       </c>
       <c r="L16" t="n">
-        <v>67.46462195561531</v>
+        <v>67.46462195561533</v>
       </c>
       <c r="M16" t="n">
         <v>71.13198461420292</v>
@@ -32171,7 +32171,7 @@
         <v>69.44062500788023</v>
       </c>
       <c r="O16" t="n">
-        <v>64.13965648562474</v>
+        <v>64.13965648562476</v>
       </c>
       <c r="P16" t="n">
         <v>54.88255659150701</v>
@@ -32183,7 +32183,7 @@
         <v>20.40357222651787</v>
       </c>
       <c r="S16" t="n">
-        <v>7.908137476391983</v>
+        <v>7.908137476391984</v>
       </c>
       <c r="T16" t="n">
         <v>1.938875646272422</v>
@@ -32235,7 +32235,7 @@
         <v>39.00060904118869</v>
       </c>
       <c r="J17" t="n">
-        <v>85.86026695051133</v>
+        <v>85.86026695051135</v>
       </c>
       <c r="K17" t="n">
         <v>128.6822831806784</v>
@@ -32250,7 +32250,7 @@
         <v>180.506482659799</v>
       </c>
       <c r="O17" t="n">
-        <v>170.4471530144239</v>
+        <v>170.447153014424</v>
       </c>
       <c r="P17" t="n">
         <v>145.4727016635558</v>
@@ -32259,13 +32259,13 @@
         <v>109.2439405900179</v>
       </c>
       <c r="R17" t="n">
-        <v>63.54638499924956</v>
+        <v>63.54638499924957</v>
       </c>
       <c r="S17" t="n">
         <v>23.05236699373808</v>
       </c>
       <c r="T17" t="n">
-        <v>4.428381196493182</v>
+        <v>4.428381196493183</v>
       </c>
       <c r="U17" t="n">
         <v>0.08092986766863605</v>
@@ -32308,13 +32308,13 @@
         <v>0.541266208116356</v>
       </c>
       <c r="H18" t="n">
-        <v>5.227492062597438</v>
+        <v>5.227492062597439</v>
       </c>
       <c r="I18" t="n">
         <v>18.63570058646226</v>
       </c>
       <c r="J18" t="n">
-        <v>51.13778679401063</v>
+        <v>51.13778679401064</v>
       </c>
       <c r="K18" t="n">
         <v>87.40262273780648</v>
@@ -32338,7 +32338,7 @@
         <v>69.09215667113344</v>
       </c>
       <c r="R18" t="n">
-        <v>33.60598439515411</v>
+        <v>33.60598439515412</v>
       </c>
       <c r="S18" t="n">
         <v>10.0537824183016</v>
@@ -32387,19 +32387,19 @@
         <v>0.4537794065743967</v>
       </c>
       <c r="H19" t="n">
-        <v>4.034511451179639</v>
+        <v>4.03451145117964</v>
       </c>
       <c r="I19" t="n">
         <v>13.64638433589186</v>
       </c>
       <c r="J19" t="n">
-        <v>32.08220404480984</v>
+        <v>32.08220404480985</v>
       </c>
       <c r="K19" t="n">
         <v>52.7209165092799</v>
       </c>
       <c r="L19" t="n">
-        <v>67.46462195561531</v>
+        <v>67.46462195561533</v>
       </c>
       <c r="M19" t="n">
         <v>71.13198461420292</v>
@@ -32408,7 +32408,7 @@
         <v>69.44062500788023</v>
       </c>
       <c r="O19" t="n">
-        <v>64.13965648562474</v>
+        <v>64.13965648562476</v>
       </c>
       <c r="P19" t="n">
         <v>54.88255659150701</v>
@@ -32420,7 +32420,7 @@
         <v>20.40357222651787</v>
       </c>
       <c r="S19" t="n">
-        <v>7.908137476391983</v>
+        <v>7.908137476391984</v>
       </c>
       <c r="T19" t="n">
         <v>1.938875646272422</v>
@@ -32472,7 +32472,7 @@
         <v>39.00060904118869</v>
       </c>
       <c r="J20" t="n">
-        <v>85.86026695051133</v>
+        <v>85.86026695051135</v>
       </c>
       <c r="K20" t="n">
         <v>128.6822831806784</v>
@@ -32487,7 +32487,7 @@
         <v>180.506482659799</v>
       </c>
       <c r="O20" t="n">
-        <v>170.4471530144239</v>
+        <v>170.447153014424</v>
       </c>
       <c r="P20" t="n">
         <v>145.4727016635558</v>
@@ -32496,13 +32496,13 @@
         <v>109.2439405900179</v>
       </c>
       <c r="R20" t="n">
-        <v>63.54638499924956</v>
+        <v>63.54638499924957</v>
       </c>
       <c r="S20" t="n">
         <v>23.05236699373808</v>
       </c>
       <c r="T20" t="n">
-        <v>4.428381196493182</v>
+        <v>4.428381196493183</v>
       </c>
       <c r="U20" t="n">
         <v>0.08092986766863605</v>
@@ -32545,13 +32545,13 @@
         <v>0.541266208116356</v>
       </c>
       <c r="H21" t="n">
-        <v>5.227492062597438</v>
+        <v>5.227492062597439</v>
       </c>
       <c r="I21" t="n">
         <v>18.63570058646226</v>
       </c>
       <c r="J21" t="n">
-        <v>51.13778679401063</v>
+        <v>51.13778679401064</v>
       </c>
       <c r="K21" t="n">
         <v>87.40262273780648</v>
@@ -32575,7 +32575,7 @@
         <v>69.09215667113344</v>
       </c>
       <c r="R21" t="n">
-        <v>33.60598439515411</v>
+        <v>33.60598439515412</v>
       </c>
       <c r="S21" t="n">
         <v>10.0537824183016</v>
@@ -32624,19 +32624,19 @@
         <v>0.4537794065743967</v>
       </c>
       <c r="H22" t="n">
-        <v>4.034511451179639</v>
+        <v>4.03451145117964</v>
       </c>
       <c r="I22" t="n">
         <v>13.64638433589186</v>
       </c>
       <c r="J22" t="n">
-        <v>32.08220404480984</v>
+        <v>32.08220404480985</v>
       </c>
       <c r="K22" t="n">
         <v>52.7209165092799</v>
       </c>
       <c r="L22" t="n">
-        <v>67.46462195561531</v>
+        <v>67.46462195561533</v>
       </c>
       <c r="M22" t="n">
         <v>71.13198461420292</v>
@@ -32645,7 +32645,7 @@
         <v>69.44062500788023</v>
       </c>
       <c r="O22" t="n">
-        <v>64.13965648562474</v>
+        <v>64.13965648562476</v>
       </c>
       <c r="P22" t="n">
         <v>54.88255659150701</v>
@@ -32657,7 +32657,7 @@
         <v>20.40357222651787</v>
       </c>
       <c r="S22" t="n">
-        <v>7.908137476391983</v>
+        <v>7.908137476391984</v>
       </c>
       <c r="T22" t="n">
         <v>1.938875646272422</v>
@@ -32709,7 +32709,7 @@
         <v>39.00060904118869</v>
       </c>
       <c r="J23" t="n">
-        <v>85.86026695051133</v>
+        <v>85.86026695051135</v>
       </c>
       <c r="K23" t="n">
         <v>128.6822831806784</v>
@@ -32724,7 +32724,7 @@
         <v>180.506482659799</v>
       </c>
       <c r="O23" t="n">
-        <v>170.4471530144239</v>
+        <v>170.447153014424</v>
       </c>
       <c r="P23" t="n">
         <v>145.4727016635558</v>
@@ -32733,13 +32733,13 @@
         <v>109.2439405900179</v>
       </c>
       <c r="R23" t="n">
-        <v>63.54638499924956</v>
+        <v>63.54638499924957</v>
       </c>
       <c r="S23" t="n">
         <v>23.05236699373808</v>
       </c>
       <c r="T23" t="n">
-        <v>4.428381196493182</v>
+        <v>4.428381196493183</v>
       </c>
       <c r="U23" t="n">
         <v>0.08092986766863605</v>
@@ -32782,13 +32782,13 @@
         <v>0.541266208116356</v>
       </c>
       <c r="H24" t="n">
-        <v>5.227492062597438</v>
+        <v>5.227492062597439</v>
       </c>
       <c r="I24" t="n">
         <v>18.63570058646226</v>
       </c>
       <c r="J24" t="n">
-        <v>51.13778679401063</v>
+        <v>51.13778679401064</v>
       </c>
       <c r="K24" t="n">
         <v>87.40262273780648</v>
@@ -32812,7 +32812,7 @@
         <v>69.09215667113344</v>
       </c>
       <c r="R24" t="n">
-        <v>33.60598439515411</v>
+        <v>33.60598439515412</v>
       </c>
       <c r="S24" t="n">
         <v>10.0537824183016</v>
@@ -32861,19 +32861,19 @@
         <v>0.4537794065743967</v>
       </c>
       <c r="H25" t="n">
-        <v>4.034511451179639</v>
+        <v>4.03451145117964</v>
       </c>
       <c r="I25" t="n">
         <v>13.64638433589186</v>
       </c>
       <c r="J25" t="n">
-        <v>32.08220404480984</v>
+        <v>32.08220404480985</v>
       </c>
       <c r="K25" t="n">
         <v>52.7209165092799</v>
       </c>
       <c r="L25" t="n">
-        <v>67.46462195561531</v>
+        <v>67.46462195561533</v>
       </c>
       <c r="M25" t="n">
         <v>71.13198461420292</v>
@@ -32882,7 +32882,7 @@
         <v>69.44062500788023</v>
       </c>
       <c r="O25" t="n">
-        <v>64.13965648562474</v>
+        <v>64.13965648562476</v>
       </c>
       <c r="P25" t="n">
         <v>54.88255659150701</v>
@@ -32894,7 +32894,7 @@
         <v>20.40357222651787</v>
       </c>
       <c r="S25" t="n">
-        <v>7.908137476391983</v>
+        <v>7.908137476391984</v>
       </c>
       <c r="T25" t="n">
         <v>1.938875646272422</v>
@@ -32946,7 +32946,7 @@
         <v>39.00060904118869</v>
       </c>
       <c r="J26" t="n">
-        <v>85.86026695051133</v>
+        <v>85.86026695051135</v>
       </c>
       <c r="K26" t="n">
         <v>128.6822831806784</v>
@@ -32961,7 +32961,7 @@
         <v>180.506482659799</v>
       </c>
       <c r="O26" t="n">
-        <v>170.4471530144239</v>
+        <v>170.447153014424</v>
       </c>
       <c r="P26" t="n">
         <v>145.4727016635558</v>
@@ -32970,13 +32970,13 @@
         <v>109.2439405900179</v>
       </c>
       <c r="R26" t="n">
-        <v>63.54638499924956</v>
+        <v>63.54638499924957</v>
       </c>
       <c r="S26" t="n">
         <v>23.05236699373808</v>
       </c>
       <c r="T26" t="n">
-        <v>4.428381196493182</v>
+        <v>4.428381196493183</v>
       </c>
       <c r="U26" t="n">
         <v>0.08092986766863605</v>
@@ -33019,13 +33019,13 @@
         <v>0.541266208116356</v>
       </c>
       <c r="H27" t="n">
-        <v>5.227492062597438</v>
+        <v>5.227492062597439</v>
       </c>
       <c r="I27" t="n">
         <v>18.63570058646226</v>
       </c>
       <c r="J27" t="n">
-        <v>51.13778679401063</v>
+        <v>51.13778679401064</v>
       </c>
       <c r="K27" t="n">
         <v>87.40262273780648</v>
@@ -33049,7 +33049,7 @@
         <v>69.09215667113344</v>
       </c>
       <c r="R27" t="n">
-        <v>33.60598439515411</v>
+        <v>33.60598439515412</v>
       </c>
       <c r="S27" t="n">
         <v>10.0537824183016</v>
@@ -33098,19 +33098,19 @@
         <v>0.4537794065743967</v>
       </c>
       <c r="H28" t="n">
-        <v>4.034511451179639</v>
+        <v>4.03451145117964</v>
       </c>
       <c r="I28" t="n">
         <v>13.64638433589186</v>
       </c>
       <c r="J28" t="n">
-        <v>32.08220404480984</v>
+        <v>32.08220404480985</v>
       </c>
       <c r="K28" t="n">
         <v>52.7209165092799</v>
       </c>
       <c r="L28" t="n">
-        <v>67.46462195561531</v>
+        <v>67.46462195561533</v>
       </c>
       <c r="M28" t="n">
         <v>71.13198461420292</v>
@@ -33119,7 +33119,7 @@
         <v>69.44062500788023</v>
       </c>
       <c r="O28" t="n">
-        <v>64.13965648562474</v>
+        <v>64.13965648562476</v>
       </c>
       <c r="P28" t="n">
         <v>54.88255659150701</v>
@@ -33131,7 +33131,7 @@
         <v>20.40357222651787</v>
       </c>
       <c r="S28" t="n">
-        <v>7.908137476391983</v>
+        <v>7.908137476391984</v>
       </c>
       <c r="T28" t="n">
         <v>1.938875646272422</v>
@@ -33183,7 +33183,7 @@
         <v>39.00060904118869</v>
       </c>
       <c r="J29" t="n">
-        <v>85.86026695051133</v>
+        <v>85.86026695051135</v>
       </c>
       <c r="K29" t="n">
         <v>128.6822831806784</v>
@@ -33198,7 +33198,7 @@
         <v>180.506482659799</v>
       </c>
       <c r="O29" t="n">
-        <v>170.4471530144239</v>
+        <v>170.447153014424</v>
       </c>
       <c r="P29" t="n">
         <v>145.4727016635558</v>
@@ -33207,13 +33207,13 @@
         <v>109.2439405900179</v>
       </c>
       <c r="R29" t="n">
-        <v>63.54638499924956</v>
+        <v>63.54638499924957</v>
       </c>
       <c r="S29" t="n">
         <v>23.05236699373808</v>
       </c>
       <c r="T29" t="n">
-        <v>4.428381196493182</v>
+        <v>4.428381196493183</v>
       </c>
       <c r="U29" t="n">
         <v>0.08092986766863605</v>
@@ -33256,13 +33256,13 @@
         <v>0.541266208116356</v>
       </c>
       <c r="H30" t="n">
-        <v>5.227492062597438</v>
+        <v>5.227492062597439</v>
       </c>
       <c r="I30" t="n">
         <v>18.63570058646226</v>
       </c>
       <c r="J30" t="n">
-        <v>51.13778679401063</v>
+        <v>51.13778679401064</v>
       </c>
       <c r="K30" t="n">
         <v>87.40262273780648</v>
@@ -33286,7 +33286,7 @@
         <v>69.09215667113344</v>
       </c>
       <c r="R30" t="n">
-        <v>33.60598439515411</v>
+        <v>33.60598439515412</v>
       </c>
       <c r="S30" t="n">
         <v>10.0537824183016</v>
@@ -33335,19 +33335,19 @@
         <v>0.4537794065743967</v>
       </c>
       <c r="H31" t="n">
-        <v>4.034511451179639</v>
+        <v>4.03451145117964</v>
       </c>
       <c r="I31" t="n">
         <v>13.64638433589186</v>
       </c>
       <c r="J31" t="n">
-        <v>32.08220404480984</v>
+        <v>32.08220404480985</v>
       </c>
       <c r="K31" t="n">
         <v>52.7209165092799</v>
       </c>
       <c r="L31" t="n">
-        <v>67.46462195561531</v>
+        <v>67.46462195561533</v>
       </c>
       <c r="M31" t="n">
         <v>71.13198461420292</v>
@@ -33356,7 +33356,7 @@
         <v>69.44062500788023</v>
       </c>
       <c r="O31" t="n">
-        <v>64.13965648562474</v>
+        <v>64.13965648562476</v>
       </c>
       <c r="P31" t="n">
         <v>54.88255659150701</v>
@@ -33368,7 +33368,7 @@
         <v>20.40357222651787</v>
       </c>
       <c r="S31" t="n">
-        <v>7.908137476391983</v>
+        <v>7.908137476391984</v>
       </c>
       <c r="T31" t="n">
         <v>1.938875646272422</v>
@@ -33420,7 +33420,7 @@
         <v>39.00060904118869</v>
       </c>
       <c r="J32" t="n">
-        <v>85.86026695051133</v>
+        <v>85.86026695051135</v>
       </c>
       <c r="K32" t="n">
         <v>128.6822831806784</v>
@@ -33435,7 +33435,7 @@
         <v>180.506482659799</v>
       </c>
       <c r="O32" t="n">
-        <v>170.4471530144239</v>
+        <v>170.447153014424</v>
       </c>
       <c r="P32" t="n">
         <v>145.4727016635558</v>
@@ -33444,13 +33444,13 @@
         <v>109.2439405900179</v>
       </c>
       <c r="R32" t="n">
-        <v>63.54638499924956</v>
+        <v>63.54638499924957</v>
       </c>
       <c r="S32" t="n">
         <v>23.05236699373808</v>
       </c>
       <c r="T32" t="n">
-        <v>4.428381196493182</v>
+        <v>4.428381196493183</v>
       </c>
       <c r="U32" t="n">
         <v>0.08092986766863605</v>
@@ -33493,13 +33493,13 @@
         <v>0.541266208116356</v>
       </c>
       <c r="H33" t="n">
-        <v>5.227492062597438</v>
+        <v>5.227492062597439</v>
       </c>
       <c r="I33" t="n">
         <v>18.63570058646226</v>
       </c>
       <c r="J33" t="n">
-        <v>51.13778679401063</v>
+        <v>51.13778679401064</v>
       </c>
       <c r="K33" t="n">
         <v>87.40262273780648</v>
@@ -33523,7 +33523,7 @@
         <v>69.09215667113344</v>
       </c>
       <c r="R33" t="n">
-        <v>33.60598439515411</v>
+        <v>33.60598439515412</v>
       </c>
       <c r="S33" t="n">
         <v>10.0537824183016</v>
@@ -33572,19 +33572,19 @@
         <v>0.4537794065743967</v>
       </c>
       <c r="H34" t="n">
-        <v>4.034511451179639</v>
+        <v>4.03451145117964</v>
       </c>
       <c r="I34" t="n">
         <v>13.64638433589186</v>
       </c>
       <c r="J34" t="n">
-        <v>32.08220404480984</v>
+        <v>32.08220404480985</v>
       </c>
       <c r="K34" t="n">
         <v>52.7209165092799</v>
       </c>
       <c r="L34" t="n">
-        <v>67.46462195561531</v>
+        <v>67.46462195561533</v>
       </c>
       <c r="M34" t="n">
         <v>71.13198461420292</v>
@@ -33593,7 +33593,7 @@
         <v>69.44062500788023</v>
       </c>
       <c r="O34" t="n">
-        <v>64.13965648562474</v>
+        <v>64.13965648562476</v>
       </c>
       <c r="P34" t="n">
         <v>54.88255659150701</v>
@@ -33605,7 +33605,7 @@
         <v>20.40357222651787</v>
       </c>
       <c r="S34" t="n">
-        <v>7.908137476391983</v>
+        <v>7.908137476391984</v>
       </c>
       <c r="T34" t="n">
         <v>1.938875646272422</v>
@@ -33657,7 +33657,7 @@
         <v>39.00060904118869</v>
       </c>
       <c r="J35" t="n">
-        <v>85.86026695051133</v>
+        <v>85.86026695051135</v>
       </c>
       <c r="K35" t="n">
         <v>128.6822831806784</v>
@@ -33672,7 +33672,7 @@
         <v>180.506482659799</v>
       </c>
       <c r="O35" t="n">
-        <v>170.4471530144239</v>
+        <v>170.447153014424</v>
       </c>
       <c r="P35" t="n">
         <v>145.4727016635558</v>
@@ -33681,13 +33681,13 @@
         <v>109.2439405900179</v>
       </c>
       <c r="R35" t="n">
-        <v>63.54638499924956</v>
+        <v>63.54638499924957</v>
       </c>
       <c r="S35" t="n">
         <v>23.05236699373808</v>
       </c>
       <c r="T35" t="n">
-        <v>4.428381196493182</v>
+        <v>4.428381196493183</v>
       </c>
       <c r="U35" t="n">
         <v>0.08092986766863605</v>
@@ -33730,13 +33730,13 @@
         <v>0.541266208116356</v>
       </c>
       <c r="H36" t="n">
-        <v>5.227492062597438</v>
+        <v>5.227492062597439</v>
       </c>
       <c r="I36" t="n">
         <v>18.63570058646226</v>
       </c>
       <c r="J36" t="n">
-        <v>51.13778679401063</v>
+        <v>51.13778679401064</v>
       </c>
       <c r="K36" t="n">
         <v>87.40262273780648</v>
@@ -33760,7 +33760,7 @@
         <v>69.09215667113344</v>
       </c>
       <c r="R36" t="n">
-        <v>33.60598439515411</v>
+        <v>33.60598439515412</v>
       </c>
       <c r="S36" t="n">
         <v>10.0537824183016</v>
@@ -33809,19 +33809,19 @@
         <v>0.4537794065743967</v>
       </c>
       <c r="H37" t="n">
-        <v>4.034511451179639</v>
+        <v>4.03451145117964</v>
       </c>
       <c r="I37" t="n">
         <v>13.64638433589186</v>
       </c>
       <c r="J37" t="n">
-        <v>32.08220404480984</v>
+        <v>32.08220404480985</v>
       </c>
       <c r="K37" t="n">
         <v>52.7209165092799</v>
       </c>
       <c r="L37" t="n">
-        <v>67.46462195561531</v>
+        <v>67.46462195561533</v>
       </c>
       <c r="M37" t="n">
         <v>71.13198461420292</v>
@@ -33830,7 +33830,7 @@
         <v>69.44062500788023</v>
       </c>
       <c r="O37" t="n">
-        <v>64.13965648562474</v>
+        <v>64.13965648562476</v>
       </c>
       <c r="P37" t="n">
         <v>54.88255659150701</v>
@@ -33842,7 +33842,7 @@
         <v>20.40357222651787</v>
       </c>
       <c r="S37" t="n">
-        <v>7.908137476391983</v>
+        <v>7.908137476391984</v>
       </c>
       <c r="T37" t="n">
         <v>1.938875646272422</v>
@@ -33894,7 +33894,7 @@
         <v>39.00060904118869</v>
       </c>
       <c r="J38" t="n">
-        <v>85.86026695051133</v>
+        <v>85.86026695051135</v>
       </c>
       <c r="K38" t="n">
         <v>128.6822831806784</v>
@@ -33909,7 +33909,7 @@
         <v>180.506482659799</v>
       </c>
       <c r="O38" t="n">
-        <v>170.4471530144239</v>
+        <v>170.447153014424</v>
       </c>
       <c r="P38" t="n">
         <v>145.4727016635558</v>
@@ -33918,13 +33918,13 @@
         <v>109.2439405900179</v>
       </c>
       <c r="R38" t="n">
-        <v>63.54638499924956</v>
+        <v>63.54638499924957</v>
       </c>
       <c r="S38" t="n">
         <v>23.05236699373808</v>
       </c>
       <c r="T38" t="n">
-        <v>4.428381196493182</v>
+        <v>4.428381196493183</v>
       </c>
       <c r="U38" t="n">
         <v>0.08092986766863605</v>
@@ -33967,13 +33967,13 @@
         <v>0.541266208116356</v>
       </c>
       <c r="H39" t="n">
-        <v>5.227492062597438</v>
+        <v>5.227492062597439</v>
       </c>
       <c r="I39" t="n">
         <v>18.63570058646226</v>
       </c>
       <c r="J39" t="n">
-        <v>51.13778679401063</v>
+        <v>51.13778679401064</v>
       </c>
       <c r="K39" t="n">
         <v>87.40262273780648</v>
@@ -33997,7 +33997,7 @@
         <v>69.09215667113344</v>
       </c>
       <c r="R39" t="n">
-        <v>33.60598439515411</v>
+        <v>33.60598439515412</v>
       </c>
       <c r="S39" t="n">
         <v>10.0537824183016</v>
@@ -34046,19 +34046,19 @@
         <v>0.4537794065743967</v>
       </c>
       <c r="H40" t="n">
-        <v>4.034511451179639</v>
+        <v>4.03451145117964</v>
       </c>
       <c r="I40" t="n">
         <v>13.64638433589186</v>
       </c>
       <c r="J40" t="n">
-        <v>32.08220404480984</v>
+        <v>32.08220404480985</v>
       </c>
       <c r="K40" t="n">
         <v>52.7209165092799</v>
       </c>
       <c r="L40" t="n">
-        <v>67.46462195561531</v>
+        <v>67.46462195561533</v>
       </c>
       <c r="M40" t="n">
         <v>71.13198461420292</v>
@@ -34067,7 +34067,7 @@
         <v>69.44062500788023</v>
       </c>
       <c r="O40" t="n">
-        <v>64.13965648562474</v>
+        <v>64.13965648562476</v>
       </c>
       <c r="P40" t="n">
         <v>54.88255659150701</v>
@@ -34079,7 +34079,7 @@
         <v>20.40357222651787</v>
       </c>
       <c r="S40" t="n">
-        <v>7.908137476391983</v>
+        <v>7.908137476391984</v>
       </c>
       <c r="T40" t="n">
         <v>1.938875646272422</v>
@@ -34131,7 +34131,7 @@
         <v>39.00060904118869</v>
       </c>
       <c r="J41" t="n">
-        <v>85.86026695051133</v>
+        <v>85.86026695051135</v>
       </c>
       <c r="K41" t="n">
         <v>128.6822831806784</v>
@@ -34146,7 +34146,7 @@
         <v>180.506482659799</v>
       </c>
       <c r="O41" t="n">
-        <v>170.4471530144239</v>
+        <v>170.447153014424</v>
       </c>
       <c r="P41" t="n">
         <v>145.4727016635558</v>
@@ -34155,13 +34155,13 @@
         <v>109.2439405900179</v>
       </c>
       <c r="R41" t="n">
-        <v>63.54638499924956</v>
+        <v>63.54638499924957</v>
       </c>
       <c r="S41" t="n">
         <v>23.05236699373808</v>
       </c>
       <c r="T41" t="n">
-        <v>4.428381196493182</v>
+        <v>4.428381196493183</v>
       </c>
       <c r="U41" t="n">
         <v>0.08092986766863605</v>
@@ -34204,13 +34204,13 @@
         <v>0.541266208116356</v>
       </c>
       <c r="H42" t="n">
-        <v>5.227492062597438</v>
+        <v>5.227492062597439</v>
       </c>
       <c r="I42" t="n">
         <v>18.63570058646226</v>
       </c>
       <c r="J42" t="n">
-        <v>51.13778679401063</v>
+        <v>51.13778679401064</v>
       </c>
       <c r="K42" t="n">
         <v>87.40262273780648</v>
@@ -34234,7 +34234,7 @@
         <v>69.09215667113344</v>
       </c>
       <c r="R42" t="n">
-        <v>33.60598439515411</v>
+        <v>33.60598439515412</v>
       </c>
       <c r="S42" t="n">
         <v>10.0537824183016</v>
@@ -34283,19 +34283,19 @@
         <v>0.4537794065743967</v>
       </c>
       <c r="H43" t="n">
-        <v>4.034511451179639</v>
+        <v>4.03451145117964</v>
       </c>
       <c r="I43" t="n">
         <v>13.64638433589186</v>
       </c>
       <c r="J43" t="n">
-        <v>32.08220404480984</v>
+        <v>32.08220404480985</v>
       </c>
       <c r="K43" t="n">
         <v>52.7209165092799</v>
       </c>
       <c r="L43" t="n">
-        <v>67.46462195561531</v>
+        <v>67.46462195561533</v>
       </c>
       <c r="M43" t="n">
         <v>71.13198461420292</v>
@@ -34304,7 +34304,7 @@
         <v>69.44062500788023</v>
       </c>
       <c r="O43" t="n">
-        <v>64.13965648562474</v>
+        <v>64.13965648562476</v>
       </c>
       <c r="P43" t="n">
         <v>54.88255659150701</v>
@@ -34316,7 +34316,7 @@
         <v>20.40357222651787</v>
       </c>
       <c r="S43" t="n">
-        <v>7.908137476391983</v>
+        <v>7.908137476391984</v>
       </c>
       <c r="T43" t="n">
         <v>1.938875646272422</v>
@@ -34368,7 +34368,7 @@
         <v>39.00060904118869</v>
       </c>
       <c r="J44" t="n">
-        <v>85.86026695051133</v>
+        <v>85.86026695051135</v>
       </c>
       <c r="K44" t="n">
         <v>128.6822831806784</v>
@@ -34383,7 +34383,7 @@
         <v>180.506482659799</v>
       </c>
       <c r="O44" t="n">
-        <v>170.4471530144239</v>
+        <v>170.447153014424</v>
       </c>
       <c r="P44" t="n">
         <v>145.4727016635558</v>
@@ -34392,13 +34392,13 @@
         <v>109.2439405900179</v>
       </c>
       <c r="R44" t="n">
-        <v>63.54638499924956</v>
+        <v>63.54638499924957</v>
       </c>
       <c r="S44" t="n">
         <v>23.05236699373808</v>
       </c>
       <c r="T44" t="n">
-        <v>4.428381196493182</v>
+        <v>4.428381196493183</v>
       </c>
       <c r="U44" t="n">
         <v>0.08092986766863605</v>
@@ -34441,13 +34441,13 @@
         <v>0.541266208116356</v>
       </c>
       <c r="H45" t="n">
-        <v>5.227492062597438</v>
+        <v>5.227492062597439</v>
       </c>
       <c r="I45" t="n">
         <v>18.63570058646226</v>
       </c>
       <c r="J45" t="n">
-        <v>51.13778679401063</v>
+        <v>51.13778679401064</v>
       </c>
       <c r="K45" t="n">
         <v>87.40262273780648</v>
@@ -34471,7 +34471,7 @@
         <v>69.09215667113344</v>
       </c>
       <c r="R45" t="n">
-        <v>33.60598439515411</v>
+        <v>33.60598439515412</v>
       </c>
       <c r="S45" t="n">
         <v>10.0537824183016</v>
@@ -34520,19 +34520,19 @@
         <v>0.4537794065743967</v>
       </c>
       <c r="H46" t="n">
-        <v>4.034511451179639</v>
+        <v>4.03451145117964</v>
       </c>
       <c r="I46" t="n">
         <v>13.64638433589186</v>
       </c>
       <c r="J46" t="n">
-        <v>32.08220404480984</v>
+        <v>32.08220404480985</v>
       </c>
       <c r="K46" t="n">
         <v>52.7209165092799</v>
       </c>
       <c r="L46" t="n">
-        <v>67.46462195561531</v>
+        <v>67.46462195561533</v>
       </c>
       <c r="M46" t="n">
         <v>71.13198461420292</v>
@@ -34541,7 +34541,7 @@
         <v>69.44062500788023</v>
       </c>
       <c r="O46" t="n">
-        <v>64.13965648562474</v>
+        <v>64.13965648562476</v>
       </c>
       <c r="P46" t="n">
         <v>54.88255659150701</v>
@@ -34553,7 +34553,7 @@
         <v>20.40357222651787</v>
       </c>
       <c r="S46" t="n">
-        <v>7.908137476391983</v>
+        <v>7.908137476391984</v>
       </c>
       <c r="T46" t="n">
         <v>1.938875646272422</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M2" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>41.31500304752734</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>13.31876740878121</v>
+      </c>
+      <c r="Q3" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34865,13 +34865,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="O4" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>39.64570999510202</v>
       </c>
       <c r="P4" t="n">
         <v>41.31500304752734</v>
@@ -34938,13 +34938,13 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K5" t="n">
-        <v>41.31500304752736</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>41.31500304752734</v>
@@ -35011,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="Q6" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="L6" t="n">
-        <v>13.31876740878121</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>41.31500304752734</v>
@@ -35102,19 +35102,19 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>39.64570999510201</v>
+      </c>
+      <c r="Q7" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>39.64570999510201</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>39.64570999510202</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>41.31500304752735</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Q9" t="n">
         <v>41.31500304752734</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K10" t="n">
+      <c r="O10" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="L10" t="n">
+      <c r="P10" t="n">
+        <v>41.31500304752734</v>
+      </c>
+      <c r="Q10" t="n">
         <v>39.64570999510201</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35415,10 +35415,10 @@
         <v>128.6822831806783</v>
       </c>
       <c r="L11" t="n">
-        <v>726.116767368114</v>
+        <v>159.6417511514787</v>
       </c>
       <c r="M11" t="n">
-        <v>177.6322078283802</v>
+        <v>177.63220782838</v>
       </c>
       <c r="N11" t="n">
         <v>180.5064826597988</v>
@@ -35427,7 +35427,7 @@
         <v>170.447153014424</v>
       </c>
       <c r="P11" t="n">
-        <v>145.4727016635557</v>
+        <v>711.947717880191</v>
       </c>
       <c r="Q11" t="n">
         <v>661.26291630577</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>18.63570058646226</v>
+        <v>44.96264317278307</v>
       </c>
       <c r="J12" t="n">
-        <v>279.1150854733768</v>
+        <v>378.9744786790736</v>
       </c>
       <c r="K12" t="n">
         <v>87.4026227378065</v>
@@ -35503,16 +35503,16 @@
         <v>140.7743196275956</v>
       </c>
       <c r="O12" t="n">
-        <v>128.7809999635436</v>
+        <v>128.7809999635438</v>
       </c>
       <c r="P12" t="n">
-        <v>103.358106004254</v>
+        <v>103.3581060042541</v>
       </c>
       <c r="Q12" t="n">
-        <v>615.2931047843415</v>
+        <v>370.7504274828896</v>
       </c>
       <c r="R12" t="n">
-        <v>33.60598439515411</v>
+        <v>151.9623259045882</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>32.08220404480983</v>
+        <v>32.08220404480985</v>
       </c>
       <c r="K13" t="n">
-        <v>330.2547090053765</v>
+        <v>313.3870614322827</v>
       </c>
       <c r="L13" t="n">
-        <v>489.8988459636569</v>
+        <v>489.8988459636568</v>
       </c>
       <c r="M13" t="n">
         <v>535.2571029787616</v>
@@ -35582,13 +35582,13 @@
         <v>516.1666888034808</v>
       </c>
       <c r="O13" t="n">
-        <v>488.047989036919</v>
+        <v>488.0479890369193</v>
       </c>
       <c r="P13" t="n">
         <v>405.8996212080137</v>
       </c>
       <c r="Q13" t="n">
-        <v>191.0218816086672</v>
+        <v>207.8895291817607</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>38.58798756205729</v>
       </c>
       <c r="J14" t="n">
-        <v>85.86026695051133</v>
+        <v>525.5114663979032</v>
       </c>
       <c r="K14" t="n">
-        <v>754.7813143426501</v>
+        <v>128.6822831806783</v>
       </c>
       <c r="L14" t="n">
-        <v>539.6689356535339</v>
+        <v>726.116767368114</v>
       </c>
       <c r="M14" t="n">
         <v>177.6322078283802</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>44.96264317278307</v>
+        <v>18.63570058646226</v>
       </c>
       <c r="J15" t="n">
         <v>378.9744786790736</v>
@@ -35743,13 +35743,13 @@
         <v>128.7809999635438</v>
       </c>
       <c r="P15" t="n">
-        <v>405.0163768160103</v>
+        <v>103.3581060042541</v>
       </c>
       <c r="Q15" t="n">
-        <v>69.09215667113335</v>
+        <v>515.4337115786445</v>
       </c>
       <c r="R15" t="n">
-        <v>151.9623259045882</v>
+        <v>33.60598439515411</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.08220404480983</v>
+        <v>32.08220404480985</v>
       </c>
       <c r="K16" t="n">
-        <v>330.2547090053765</v>
+        <v>313.3870614322818</v>
       </c>
       <c r="L16" t="n">
-        <v>489.8988459636569</v>
+        <v>489.8988459636568</v>
       </c>
       <c r="M16" t="n">
         <v>535.2571029787616</v>
@@ -35819,13 +35819,13 @@
         <v>516.1666888034808</v>
       </c>
       <c r="O16" t="n">
-        <v>488.047989036919</v>
+        <v>488.0479890369193</v>
       </c>
       <c r="P16" t="n">
         <v>405.8996212080137</v>
       </c>
       <c r="Q16" t="n">
-        <v>191.0218816086672</v>
+        <v>207.8895291817607</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>18.63570058646226</v>
+        <v>44.96264317278306</v>
       </c>
       <c r="J18" t="n">
-        <v>279.1150854733771</v>
+        <v>51.13778679401065</v>
       </c>
       <c r="K18" t="n">
         <v>87.4026227378065</v>
@@ -35980,13 +35980,13 @@
         <v>128.7809999635436</v>
       </c>
       <c r="P18" t="n">
-        <v>103.358106004254</v>
+        <v>186.6521205878656</v>
       </c>
       <c r="Q18" t="n">
-        <v>615.2931047843413</v>
+        <v>615.2931047843412</v>
       </c>
       <c r="R18" t="n">
-        <v>33.60598439515411</v>
+        <v>151.9623259045882</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>38.58798756205729</v>
       </c>
       <c r="J20" t="n">
-        <v>85.86026695051132</v>
+        <v>525.5114663979032</v>
       </c>
       <c r="K20" t="n">
-        <v>128.6822831806784</v>
+        <v>971.460355865707</v>
       </c>
       <c r="L20" t="n">
-        <v>1245.56090898265</v>
+        <v>159.6417511514787</v>
       </c>
       <c r="M20" t="n">
-        <v>1268.12181794008</v>
+        <v>177.6322078283799</v>
       </c>
       <c r="N20" t="n">
-        <v>1268.12181794008</v>
+        <v>180.5064826597991</v>
       </c>
       <c r="O20" t="n">
-        <v>497.18922511239</v>
+        <v>1090.088439241515</v>
       </c>
       <c r="P20" t="n">
-        <v>145.4727016635561</v>
+        <v>982.1493429094107</v>
       </c>
       <c r="Q20" t="n">
-        <v>109.2439405900177</v>
+        <v>661.26291630577</v>
       </c>
       <c r="R20" t="n">
         <v>234.4090766690033</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>18.63570058646226</v>
+        <v>44.96264317278306</v>
       </c>
       <c r="J21" t="n">
         <v>378.9744786790736</v>
       </c>
       <c r="K21" t="n">
-        <v>415.3878361358834</v>
+        <v>87.4026227378065</v>
       </c>
       <c r="L21" t="n">
         <v>117.5236124245623</v>
       </c>
       <c r="M21" t="n">
-        <v>137.1445124687802</v>
+        <v>137.1445124687801</v>
       </c>
       <c r="N21" t="n">
         <v>140.7743196275956</v>
       </c>
       <c r="O21" t="n">
-        <v>128.7809999635438</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P21" t="n">
         <v>103.3581060042541</v>
       </c>
       <c r="Q21" t="n">
-        <v>69.09215667113335</v>
+        <v>370.7504274828898</v>
       </c>
       <c r="R21" t="n">
         <v>151.9623259045882</v>
@@ -36360,19 +36360,19 @@
         <v>525.5114663979032</v>
       </c>
       <c r="K23" t="n">
-        <v>901.0211708096604</v>
+        <v>971.460355865707</v>
       </c>
       <c r="L23" t="n">
         <v>159.6417511514787</v>
       </c>
       <c r="M23" t="n">
-        <v>177.6322078283802</v>
+        <v>177.6322078283799</v>
       </c>
       <c r="N23" t="n">
         <v>180.5064826597991</v>
       </c>
       <c r="O23" t="n">
-        <v>1160.527624297561</v>
+        <v>1090.088439241514</v>
       </c>
       <c r="P23" t="n">
         <v>982.1493429094107</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>18.63570058646246</v>
+        <v>44.96264317278307</v>
       </c>
       <c r="J24" t="n">
-        <v>51.13778679401048</v>
+        <v>378.9744786790736</v>
       </c>
       <c r="K24" t="n">
-        <v>775.0122389705107</v>
+        <v>87.4026227378065</v>
       </c>
       <c r="L24" t="n">
-        <v>117.5236124245621</v>
+        <v>117.5236124245623</v>
       </c>
       <c r="M24" t="n">
-        <v>137.1445124687798</v>
+        <v>137.1445124687801</v>
       </c>
       <c r="N24" t="n">
-        <v>140.7743196275951</v>
+        <v>140.7743196275956</v>
       </c>
       <c r="O24" t="n">
-        <v>128.7809999635438</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P24" t="n">
-        <v>103.3581060042543</v>
+        <v>103.3581060042541</v>
       </c>
       <c r="Q24" t="n">
-        <v>155.6607872310051</v>
+        <v>370.7504274828896</v>
       </c>
       <c r="R24" t="n">
-        <v>33.60598439515434</v>
+        <v>151.9623259045882</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>32.08220404480986</v>
+        <v>32.08220404480984</v>
       </c>
       <c r="K25" t="n">
         <v>330.2547090053765</v>
@@ -36597,25 +36597,25 @@
         <v>525.5114663979032</v>
       </c>
       <c r="K26" t="n">
-        <v>128.6822831806784</v>
+        <v>971.460355865707</v>
       </c>
       <c r="L26" t="n">
-        <v>1245.56090898265</v>
+        <v>159.6417511514787</v>
       </c>
       <c r="M26" t="n">
-        <v>1155.212690590654</v>
+        <v>177.6322078283799</v>
       </c>
       <c r="N26" t="n">
-        <v>1268.12181794008</v>
+        <v>180.5064826597991</v>
       </c>
       <c r="O26" t="n">
-        <v>170.4471530144237</v>
+        <v>1090.088439241514</v>
       </c>
       <c r="P26" t="n">
-        <v>145.4727016635561</v>
+        <v>982.1493429094107</v>
       </c>
       <c r="Q26" t="n">
-        <v>109.2439405900177</v>
+        <v>661.26291630577</v>
       </c>
       <c r="R26" t="n">
         <v>234.4090766690033</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>18.63570058646226</v>
+        <v>44.96264317278307</v>
       </c>
       <c r="J27" t="n">
-        <v>51.13778679401062</v>
+        <v>378.9744786790736</v>
       </c>
       <c r="K27" t="n">
-        <v>87.40262273780647</v>
+        <v>87.4026227378065</v>
       </c>
       <c r="L27" t="n">
         <v>117.5236124245623</v>
@@ -36685,16 +36685,16 @@
         <v>137.1445124687801</v>
       </c>
       <c r="N27" t="n">
-        <v>796.5962249107357</v>
+        <v>140.7743196275956</v>
       </c>
       <c r="O27" t="n">
-        <v>128.7809999635438</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P27" t="n">
         <v>103.3581060042541</v>
       </c>
       <c r="Q27" t="n">
-        <v>69.09215667113335</v>
+        <v>370.7504274828896</v>
       </c>
       <c r="R27" t="n">
         <v>151.9623259045882</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>32.08220404480986</v>
+        <v>32.08220404480984</v>
       </c>
       <c r="K28" t="n">
-        <v>330.2547090053765</v>
+        <v>313.3870614322818</v>
       </c>
       <c r="L28" t="n">
-        <v>489.8988459636569</v>
+        <v>489.8988459636568</v>
       </c>
       <c r="M28" t="n">
         <v>535.2571029787616</v>
@@ -36767,13 +36767,13 @@
         <v>516.1666888034808</v>
       </c>
       <c r="O28" t="n">
-        <v>488.047989036919</v>
+        <v>488.0479890369193</v>
       </c>
       <c r="P28" t="n">
         <v>405.8996212080137</v>
       </c>
       <c r="Q28" t="n">
-        <v>191.0218816086663</v>
+        <v>207.8895291817607</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>38.58798756205729</v>
       </c>
       <c r="J29" t="n">
-        <v>285.259023868325</v>
+        <v>525.5114663979032</v>
       </c>
       <c r="K29" t="n">
-        <v>128.6822831806784</v>
+        <v>971.460355865707</v>
       </c>
       <c r="L29" t="n">
-        <v>1245.56090898265</v>
+        <v>159.6417511514787</v>
       </c>
       <c r="M29" t="n">
         <v>177.6322078283799</v>
       </c>
       <c r="N29" t="n">
-        <v>1268.12181794008</v>
+        <v>180.5064826597991</v>
       </c>
       <c r="O29" t="n">
-        <v>170.4471530144237</v>
+        <v>1090.088439241515</v>
       </c>
       <c r="P29" t="n">
         <v>982.1493429094107</v>
@@ -36855,7 +36855,7 @@
         <v>661.26291630577</v>
       </c>
       <c r="R29" t="n">
-        <v>63.54638499924931</v>
+        <v>234.4090766690033</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>18.63570058646226</v>
       </c>
       <c r="J30" t="n">
-        <v>279.1150854733771</v>
+        <v>378.9744786790736</v>
       </c>
       <c r="K30" t="n">
-        <v>87.4026227378065</v>
+        <v>87.40262273780644</v>
       </c>
       <c r="L30" t="n">
         <v>117.5236124245623</v>
@@ -36925,13 +36925,13 @@
         <v>140.7743196275956</v>
       </c>
       <c r="O30" t="n">
-        <v>128.7809999635436</v>
+        <v>128.7809999635438</v>
       </c>
       <c r="P30" t="n">
-        <v>103.358106004254</v>
+        <v>103.3581060042541</v>
       </c>
       <c r="Q30" t="n">
-        <v>615.2931047843413</v>
+        <v>515.4337115786445</v>
       </c>
       <c r="R30" t="n">
         <v>33.60598439515411</v>
@@ -37068,31 +37068,31 @@
         <v>38.58798756205729</v>
       </c>
       <c r="J32" t="n">
-        <v>85.86026695051132</v>
+        <v>525.5114663979032</v>
       </c>
       <c r="K32" t="n">
-        <v>128.6822831806784</v>
+        <v>971.460355865707</v>
       </c>
       <c r="L32" t="n">
-        <v>753.0852014672323</v>
+        <v>159.6417511514787</v>
       </c>
       <c r="M32" t="n">
-        <v>1268.12181794008</v>
+        <v>177.6322078283799</v>
       </c>
       <c r="N32" t="n">
-        <v>1268.12181794008</v>
+        <v>180.5064826597991</v>
       </c>
       <c r="O32" t="n">
-        <v>1160.527624297561</v>
+        <v>1090.088439241515</v>
       </c>
       <c r="P32" t="n">
-        <v>145.4727016635561</v>
+        <v>982.1493429094107</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.2439405900177</v>
+        <v>661.26291630577</v>
       </c>
       <c r="R32" t="n">
-        <v>63.54638499924931</v>
+        <v>234.4090766690033</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>18.63570058646226</v>
+        <v>44.96264317278306</v>
       </c>
       <c r="J33" t="n">
-        <v>279.1150854733771</v>
+        <v>51.13778679401065</v>
       </c>
       <c r="K33" t="n">
         <v>87.4026227378065</v>
@@ -37165,13 +37165,13 @@
         <v>128.7809999635436</v>
       </c>
       <c r="P33" t="n">
-        <v>103.358106004254</v>
+        <v>186.6521205878656</v>
       </c>
       <c r="Q33" t="n">
-        <v>615.2931047843413</v>
+        <v>615.2931047843412</v>
       </c>
       <c r="R33" t="n">
-        <v>33.60598439515411</v>
+        <v>151.9623259045882</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>32.08220404480986</v>
+        <v>119.5364314838905</v>
       </c>
       <c r="K34" t="n">
         <v>330.2547090053765</v>
       </c>
       <c r="L34" t="n">
-        <v>489.8988459636569</v>
+        <v>489.8988459636568</v>
       </c>
       <c r="M34" t="n">
         <v>535.2571029787616</v>
       </c>
       <c r="N34" t="n">
-        <v>516.1666888034808</v>
+        <v>516.1666888034811</v>
       </c>
       <c r="O34" t="n">
-        <v>488.047989036919</v>
+        <v>488.0479890369193</v>
       </c>
       <c r="P34" t="n">
-        <v>405.8996212080137</v>
+        <v>301.5777461958382</v>
       </c>
       <c r="Q34" t="n">
-        <v>191.0218816086663</v>
+        <v>207.8895291817607</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>38.58798756205729</v>
       </c>
       <c r="J35" t="n">
-        <v>85.86026695051132</v>
+        <v>205.8297647565398</v>
       </c>
       <c r="K35" t="n">
-        <v>128.6822831806784</v>
+        <v>971.4603558657068</v>
       </c>
       <c r="L35" t="n">
         <v>1245.56090898265</v>
       </c>
       <c r="M35" t="n">
-        <v>1268.12181794008</v>
+        <v>177.6322078283802</v>
       </c>
       <c r="N35" t="n">
-        <v>1268.12181794008</v>
+        <v>180.5064826597991</v>
       </c>
       <c r="O35" t="n">
-        <v>668.051916782144</v>
+        <v>1160.527624297562</v>
       </c>
       <c r="P35" t="n">
         <v>145.4727016635561</v>
       </c>
       <c r="Q35" t="n">
-        <v>109.2439405900177</v>
+        <v>661.26291630577</v>
       </c>
       <c r="R35" t="n">
-        <v>63.54638499924931</v>
+        <v>234.4090766690033</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>18.63570058646226</v>
+        <v>44.96264317278306</v>
       </c>
       <c r="J36" t="n">
-        <v>279.1150854733771</v>
+        <v>51.13778679401065</v>
       </c>
       <c r="K36" t="n">
         <v>87.4026227378065</v>
@@ -37402,13 +37402,13 @@
         <v>128.7809999635436</v>
       </c>
       <c r="P36" t="n">
-        <v>103.358106004254</v>
+        <v>186.6521205878656</v>
       </c>
       <c r="Q36" t="n">
-        <v>615.2931047843413</v>
+        <v>615.2931047843412</v>
       </c>
       <c r="R36" t="n">
-        <v>33.60598439515411</v>
+        <v>151.9623259045882</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,10 +37466,10 @@
         <v>32.08220404480986</v>
       </c>
       <c r="K37" t="n">
-        <v>330.2547090053765</v>
+        <v>313.3870614322818</v>
       </c>
       <c r="L37" t="n">
-        <v>489.8988459636569</v>
+        <v>489.8988459636568</v>
       </c>
       <c r="M37" t="n">
         <v>535.2571029787616</v>
@@ -37478,13 +37478,13 @@
         <v>516.1666888034808</v>
       </c>
       <c r="O37" t="n">
-        <v>488.047989036919</v>
+        <v>488.0479890369193</v>
       </c>
       <c r="P37" t="n">
         <v>405.8996212080137</v>
       </c>
       <c r="Q37" t="n">
-        <v>191.0218816086663</v>
+        <v>207.8895291817607</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>525.5114663979032</v>
       </c>
       <c r="K38" t="n">
-        <v>901.0211708096604</v>
+        <v>971.460355865707</v>
       </c>
       <c r="L38" t="n">
         <v>159.6417511514787</v>
       </c>
       <c r="M38" t="n">
-        <v>177.6322078283802</v>
+        <v>177.6322078283799</v>
       </c>
       <c r="N38" t="n">
-        <v>180.5064826597991</v>
+        <v>1268.12181794008</v>
       </c>
       <c r="O38" t="n">
-        <v>1160.527624297561</v>
+        <v>170.4471530144237</v>
       </c>
       <c r="P38" t="n">
         <v>982.1493429094107</v>
       </c>
       <c r="Q38" t="n">
-        <v>661.26291630577</v>
+        <v>493.2888672525796</v>
       </c>
       <c r="R38" t="n">
         <v>234.4090766690033</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>44.96264317278306</v>
+        <v>44.96264317278307</v>
       </c>
       <c r="J39" t="n">
-        <v>378.9744786790736</v>
+        <v>51.13778679401065</v>
       </c>
       <c r="K39" t="n">
         <v>87.4026227378065</v>
       </c>
       <c r="L39" t="n">
-        <v>419.1818832363185</v>
+        <v>117.5236124245623</v>
       </c>
       <c r="M39" t="n">
-        <v>137.1445124687802</v>
+        <v>137.1445124687801</v>
       </c>
       <c r="N39" t="n">
         <v>140.7743196275956</v>
       </c>
       <c r="O39" t="n">
-        <v>128.7809999635438</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P39" t="n">
-        <v>103.3581060042541</v>
+        <v>186.6521205878654</v>
       </c>
       <c r="Q39" t="n">
-        <v>69.09215667113335</v>
+        <v>615.2931047843412</v>
       </c>
       <c r="R39" t="n">
         <v>151.9623259045882</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>32.08220404480986</v>
+        <v>32.08220404480984</v>
       </c>
       <c r="K40" t="n">
         <v>330.2547090053765</v>
@@ -37794,10 +37794,10 @@
         <v>180.5064826597988</v>
       </c>
       <c r="O41" t="n">
-        <v>736.9221692310598</v>
+        <v>170.447153014424</v>
       </c>
       <c r="P41" t="n">
-        <v>145.4727016635557</v>
+        <v>711.9477178801901</v>
       </c>
       <c r="Q41" t="n">
         <v>661.26291630577</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>18.63570058646226</v>
+        <v>44.96264317278305</v>
       </c>
       <c r="J42" t="n">
-        <v>51.13778679401062</v>
+        <v>134.4318013776223</v>
       </c>
       <c r="K42" t="n">
         <v>87.4026227378065</v>
@@ -37870,7 +37870,7 @@
         <v>137.1445124687801</v>
       </c>
       <c r="N42" t="n">
-        <v>250.395276797528</v>
+        <v>140.7743196275956</v>
       </c>
       <c r="O42" t="n">
         <v>128.7809999635436</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>32.08220404480984</v>
+        <v>32.08220404480985</v>
       </c>
       <c r="K43" t="n">
         <v>330.2547090053765</v>
@@ -38019,13 +38019,13 @@
         <v>525.5114663979032</v>
       </c>
       <c r="K44" t="n">
-        <v>695.157299397314</v>
+        <v>128.6822831806783</v>
       </c>
       <c r="L44" t="n">
         <v>159.6417511514787</v>
       </c>
       <c r="M44" t="n">
-        <v>177.6322078283802</v>
+        <v>177.63220782838</v>
       </c>
       <c r="N44" t="n">
         <v>180.5064826597988</v>
@@ -38034,7 +38034,7 @@
         <v>170.447153014424</v>
       </c>
       <c r="P44" t="n">
-        <v>145.4727016635557</v>
+        <v>711.9477178801901</v>
       </c>
       <c r="Q44" t="n">
         <v>661.26291630577</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>44.96264317278306</v>
+        <v>44.96264317278305</v>
       </c>
       <c r="J45" t="n">
-        <v>51.13778679401062</v>
+        <v>378.9744786790736</v>
       </c>
       <c r="K45" t="n">
-        <v>87.4026227378065</v>
+        <v>87.40262273780644</v>
       </c>
       <c r="L45" t="n">
-        <v>747.0185751213816</v>
+        <v>117.5236124245623</v>
       </c>
       <c r="M45" t="n">
         <v>137.1445124687801</v>
@@ -38110,13 +38110,13 @@
         <v>140.7743196275956</v>
       </c>
       <c r="O45" t="n">
-        <v>128.7809999635438</v>
+        <v>128.7809999635436</v>
       </c>
       <c r="P45" t="n">
         <v>103.3581060042541</v>
       </c>
       <c r="Q45" t="n">
-        <v>69.09215667113335</v>
+        <v>370.7504274828898</v>
       </c>
       <c r="R45" t="n">
         <v>151.9623259045882</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>32.08220404480984</v>
+        <v>32.08220404480985</v>
       </c>
       <c r="K46" t="n">
         <v>330.2547090053765</v>
